--- a/003.python_study/006.project/001.sql_approval/009.________.需求确定/“SQL审核服务”信息汇总.v3.xlsx
+++ b/003.python_study/006.project/001.sql_approval/009.________.需求确定/“SQL审核服务”信息汇总.v3.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="796">
   <si>
     <t>平台</t>
   </si>
@@ -582,7 +582,7 @@
     <t>解析“SQL语句”</t>
   </si>
   <si>
-    <t>Spring Drools</t>
+    <t>Spring Drools //https://mp.weixin.qq.com/s/mkro_1bTGapsY6l0-4-E-Q</t>
   </si>
   <si>
     <t>规则引擎</t>
@@ -598,6 +598,42 @@
   </si>
   <si>
     <t>数据库-执行计划</t>
+  </si>
+  <si>
+    <t>驱动</t>
+  </si>
+  <si>
+    <t>TD-SQL</t>
+  </si>
+  <si>
+    <t>TD-SQL的JDBC驱动</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如：tdsql-jdbc.jar </t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>达梦官方 JDBC Driver</t>
+  </si>
+  <si>
+    <t>如：dmjdbc8.jar</t>
+  </si>
+  <si>
+    <t>MYSQL</t>
+  </si>
+  <si>
+    <t>MySQL Connector/J</t>
+  </si>
+  <si>
+    <t>如：mysql-connector-java-8.0.23.jar</t>
+  </si>
+  <si>
+    <t>Oracle JDBC Driver</t>
+  </si>
+  <si>
+    <t>如：ojdbc11.jar</t>
   </si>
   <si>
     <t>审批参数配置</t>
@@ -4455,7 +4491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4759,11 +4795,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5234,284 +5279,284 @@
   </cols>
   <sheetData>
     <row r="4" ht="20.25" spans="2:18">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="105" t="s">
+      <c r="G4" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="105" t="s">
+      <c r="H4" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="105" t="s">
+      <c r="I4" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="105" t="s">
+      <c r="J4" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="105" t="s">
+      <c r="L4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="105" t="s">
+      <c r="M4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="108" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="2:18">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="106" t="s">
+      <c r="I5" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="106" t="s">
+      <c r="J5" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="123" t="s">
+      <c r="K5" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="112" t="s">
+      <c r="L5" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="106" t="s">
+      <c r="M5" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="106" t="s">
+      <c r="N5" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="124" t="s">
+      <c r="O5" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="106" t="s">
+      <c r="P5" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="106" t="s">
+      <c r="Q5" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="124" t="s">
+      <c r="R5" s="127" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" ht="27" spans="2:18">
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="124" t="s">
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="112"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="124"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="127"/>
     </row>
     <row r="7" ht="40.5" spans="2:18">
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="111" t="s">
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="112" t="s">
+      <c r="G7" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="109"/>
-      <c r="I7" s="111" t="s">
+      <c r="H7" s="112"/>
+      <c r="I7" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="111" t="s">
+      <c r="J7" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="106"/>
-      <c r="L7" s="111" t="s">
+      <c r="K7" s="109"/>
+      <c r="L7" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="111" t="s">
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="111"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
     </row>
     <row r="9" ht="29" customHeight="1" spans="2:18">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="106" t="s">
+      <c r="F9" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="108" t="s">
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="109"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="106" t="s">
+      <c r="B10" s="112"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="109"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="106" t="s">
+      <c r="B11" s="112"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
     </row>
     <row r="12" ht="135" customHeight="1" spans="2:18">
-      <c r="B12" s="110"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="106" t="s">
+      <c r="B12" s="113"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="109"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="117"/>
+      <c r="D13" s="120"/>
       <c r="E13" s="95"/>
       <c r="F13" s="95"/>
       <c r="G13" s="95"/>
@@ -5528,9 +5573,9 @@
       <c r="R13" s="95"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="118"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="119"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="95"/>
       <c r="F14" s="95"/>
       <c r="G14" s="95"/>
@@ -5547,9 +5592,9 @@
       <c r="R14" s="95"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="118"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="119"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="95"/>
       <c r="F15" s="95"/>
       <c r="G15" s="95"/>
@@ -5566,9 +5611,9 @@
       <c r="R15" s="95"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="120"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="121"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="124"/>
       <c r="E16" s="95"/>
       <c r="F16" s="95"/>
       <c r="G16" s="95"/>
@@ -5588,11 +5633,11 @@
       <c r="B17" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="95" t="s">
         <v>44</v>
       </c>
@@ -5600,9 +5645,9 @@
       <c r="H17" s="94">
         <v>171</v>
       </c>
-      <c r="I17" s="125"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="126"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="129"/>
       <c r="L17" s="95"/>
       <c r="M17" s="95"/>
       <c r="N17" s="95"/>
@@ -5613,17 +5658,17 @@
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="94"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
       <c r="F18" s="95" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="95"/>
       <c r="H18" s="94"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="127"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="130"/>
       <c r="L18" s="95"/>
       <c r="M18" s="95"/>
       <c r="N18" s="95"/>
@@ -5634,17 +5679,17 @@
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="94"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
       <c r="F19" s="95" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="95"/>
       <c r="H19" s="94"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="127"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="130"/>
       <c r="L19" s="95"/>
       <c r="M19" s="95"/>
       <c r="N19" s="95"/>
@@ -5655,17 +5700,17 @@
     </row>
     <row r="20" ht="78" customHeight="1" spans="2:18">
       <c r="B20" s="94"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="95" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="95"/>
       <c r="H20" s="94"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="131"/>
       <c r="L20" s="95"/>
       <c r="M20" s="95"/>
       <c r="N20" s="95"/>
@@ -5730,19 +5775,19 @@
   <sheetData>
     <row r="2" ht="17.6" spans="2:11">
       <c r="B2" s="3" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -5755,42 +5800,42 @@
         <v>45</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>45</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="10" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="C4" s="11">
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="E4" s="12">
         <v>4</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="14"/>
@@ -5798,63 +5843,63 @@
         <v>5</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="3" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="C5" s="15">
         <v>10</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="14" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="I5" s="25">
         <v>10</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="3" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="C6" s="16">
         <v>3</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="E6" s="12">
         <v>3</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="14" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="I6" s="25">
         <v>5</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="K6" s="12"/>
     </row>
@@ -5864,23 +5909,23 @@
         <v>4</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="E7" s="12">
         <v>3</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="14" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="I7" s="25">
         <v>7</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="K7" s="12"/>
     </row>
@@ -5890,23 +5935,23 @@
         <v>5</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="E8" s="12">
         <v>5</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="14" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="I8" s="25">
         <v>5</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="K8" s="12"/>
     </row>
@@ -5916,51 +5961,51 @@
         <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="E9" s="12">
         <v>3</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="14" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="I9" s="25">
         <v>4</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="18" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="C10" s="16">
         <v>2</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="E10" s="12">
         <v>3</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="14" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="I10" s="25">
         <v>5</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="K10" s="12"/>
     </row>
@@ -5970,13 +6015,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="E11" s="20">
         <v>15</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="22"/>
@@ -5990,23 +6035,23 @@
         <v>8</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="E12" s="20">
         <v>10</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="22" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="I12" s="26">
         <v>15</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="K12" s="20"/>
     </row>
@@ -6016,23 +6061,23 @@
         <v>9</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="E13" s="12">
         <v>10</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="14" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="I13" s="25">
         <v>10</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="K13" s="12"/>
     </row>
@@ -6042,13 +6087,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E14" s="12">
         <v>26</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="14"/>
@@ -6058,29 +6103,29 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="23" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C15" s="24">
         <v>11</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="E15" s="12">
         <v>4</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="14" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="I15" s="25">
         <v>7</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="K15" s="12"/>
     </row>
@@ -6090,23 +6135,23 @@
         <v>12</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="E16" s="12">
         <v>4</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="14" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="I16" s="25">
         <v>12</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="K16" s="12"/>
     </row>
@@ -6116,23 +6161,23 @@
         <v>13</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="E17" s="12">
         <v>4</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="14" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="I17" s="25">
         <v>4</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="K17" s="12"/>
     </row>
@@ -6169,8 +6214,8 @@
   </cols>
   <sheetData>
     <row r="2" ht="26" customHeight="1" spans="2:3">
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="73" t="s">
@@ -6182,7 +6227,7 @@
     </row>
     <row r="4" ht="40.5" spans="2:3">
       <c r="B4" s="73"/>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="107" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6200,7 +6245,7 @@
     </row>
     <row r="7" ht="27" spans="2:3">
       <c r="B7" s="73"/>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="107" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6220,7 +6265,7 @@
       <c r="B10" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="107" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6245,10 +6290,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B5:G37"/>
+  <dimension ref="B5:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:G25"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -6256,7 +6301,7 @@
     <col min="2" max="2" width="9.16814159292035" customWidth="1"/>
     <col min="3" max="3" width="16.6637168141593" customWidth="1"/>
     <col min="4" max="4" width="26.3362831858407" customWidth="1"/>
-    <col min="5" max="5" width="18.6637168141593" customWidth="1"/>
+    <col min="5" max="5" width="28.0796460176991" customWidth="1"/>
     <col min="6" max="6" width="37.6637168141593" customWidth="1"/>
     <col min="7" max="7" width="44.3362831858407" customWidth="1"/>
   </cols>
@@ -6613,10 +6658,10 @@
       <c r="G33" s="100"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="102" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="14" t="s">
@@ -6627,8 +6672,8 @@
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="91"/>
-      <c r="C35" s="25" t="s">
+      <c r="B35" s="101"/>
+      <c r="C35" s="102" t="s">
         <v>115</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -6641,8 +6686,8 @@
       <c r="G35" s="14"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="91"/>
-      <c r="C36" s="25" t="s">
+      <c r="B36" s="101"/>
+      <c r="C36" s="102" t="s">
         <v>118</v>
       </c>
       <c r="D36" s="12" t="s">
@@ -6655,19 +6700,77 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="91"/>
-      <c r="C37" s="25" t="s">
+      <c r="B37" s="101"/>
+      <c r="C37" s="102" t="s">
         <v>121</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="102"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="101"/>
+      <c r="C38" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="105" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="105"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="101"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="105"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="101"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="105"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="101"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="43">
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
@@ -6695,10 +6798,11 @@
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="B6:B33"/>
-    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B34:B41"/>
     <mergeCell ref="C7:C19"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="C24:C33"/>
+    <mergeCell ref="C38:C41"/>
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D14:D19"/>
@@ -6736,29 +6840,29 @@
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" s="55" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="55"/>
       <c r="C4" s="56"/>
       <c r="D4" s="57" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F4" s="56"/>
     </row>
@@ -6766,10 +6870,10 @@
       <c r="B5" s="55"/>
       <c r="C5" s="56"/>
       <c r="D5" s="57" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F5" s="56"/>
     </row>
@@ -6777,10 +6881,10 @@
       <c r="B6" s="55"/>
       <c r="C6" s="56"/>
       <c r="D6" s="57" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F6" s="56"/>
     </row>
@@ -6788,20 +6892,20 @@
       <c r="B7" s="55"/>
       <c r="C7" s="56"/>
       <c r="D7" s="57" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="F7" s="56"/>
     </row>
     <row r="8" ht="119" customHeight="1" spans="2:6">
       <c r="B8" s="55"/>
       <c r="C8" s="60" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
@@ -6809,10 +6913,10 @@
     <row r="9" spans="2:6">
       <c r="B9" s="55"/>
       <c r="C9" s="60" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="56"/>
@@ -6822,13 +6926,13 @@
         <v>72</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F12" s="64"/>
     </row>
@@ -6836,10 +6940,10 @@
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="64" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F13" s="64"/>
     </row>
@@ -6847,107 +6951,107 @@
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
       <c r="D14" s="66" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E14" s="64" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" ht="27" spans="2:6">
       <c r="B15" s="62"/>
       <c r="C15" s="62"/>
       <c r="D15" s="64" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" ht="121.5" spans="2:6">
       <c r="B16" s="62"/>
       <c r="C16" s="62"/>
       <c r="D16" s="66" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F16" s="65" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
       <c r="D17" s="64" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" ht="40.5" spans="2:6">
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
       <c r="D18" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="E18" s="129" t="s">
-        <v>157</v>
+        <v>168</v>
+      </c>
+      <c r="E18" s="132" t="s">
+        <v>169</v>
       </c>
       <c r="F18" s="65" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="62"/>
       <c r="C19" s="62"/>
       <c r="D19" s="66" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="65" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" ht="148.5" spans="2:6">
       <c r="B20" s="62"/>
       <c r="C20" s="62"/>
       <c r="D20" s="66" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="65" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
       <c r="D21" s="64" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E21" s="64" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F21" s="64"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="62"/>
       <c r="C22" s="64" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E22" s="67"/>
       <c r="F22" s="67"/>
@@ -6955,10 +7059,10 @@
     <row r="23" spans="2:6">
       <c r="B23" s="62"/>
       <c r="C23" s="64" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E23" s="68"/>
       <c r="F23" s="69"/>
@@ -6966,10 +7070,10 @@
     <row r="24" spans="2:6">
       <c r="B24" s="62"/>
       <c r="C24" s="64" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E24" s="68"/>
       <c r="F24" s="69"/>
@@ -6977,10 +7081,10 @@
     <row r="25" spans="2:6">
       <c r="B25" s="62"/>
       <c r="C25" s="64" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="E25" s="68"/>
       <c r="F25" s="69"/>
@@ -6988,23 +7092,23 @@
     <row r="26" spans="2:6">
       <c r="B26" s="70"/>
       <c r="C26" s="64" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E26" s="68"/>
       <c r="F26" s="69"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="71" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D29" s="73" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
@@ -7013,7 +7117,7 @@
       <c r="B30" s="74"/>
       <c r="C30" s="75"/>
       <c r="D30" s="73" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E30" s="76"/>
       <c r="F30" s="77"/>
@@ -7022,7 +7126,7 @@
       <c r="B31" s="74"/>
       <c r="C31" s="75"/>
       <c r="D31" s="73" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E31" s="76"/>
       <c r="F31" s="77"/>
@@ -7031,23 +7135,23 @@
       <c r="B32" s="74"/>
       <c r="C32" s="78"/>
       <c r="D32" s="73" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E32" s="73" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="F32" s="73"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="74"/>
       <c r="C33" s="73" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="E33" s="79" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F33" s="79"/>
     </row>
@@ -7055,10 +7159,10 @@
       <c r="B34" s="74"/>
       <c r="C34" s="73"/>
       <c r="D34" s="79" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="E34" s="79" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="F34" s="79"/>
     </row>
@@ -7066,7 +7170,7 @@
       <c r="B35" s="74"/>
       <c r="C35" s="73"/>
       <c r="D35" s="79" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E35" s="79"/>
       <c r="F35" s="79"/>
@@ -7075,20 +7179,20 @@
       <c r="B36" s="74"/>
       <c r="C36" s="73"/>
       <c r="D36" s="79" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E36" s="79" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="F36" s="79" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="74"/>
       <c r="C37" s="73"/>
       <c r="D37" s="79" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="E37" s="79"/>
       <c r="F37" s="79"/>
@@ -7097,20 +7201,20 @@
       <c r="B38" s="74"/>
       <c r="C38" s="73"/>
       <c r="D38" s="79" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E38" s="79" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="F38" s="79"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="74"/>
       <c r="C39" s="79" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D39" s="73" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E39" s="76"/>
       <c r="F39" s="77"/>
@@ -7118,10 +7222,10 @@
     <row r="40" spans="2:6">
       <c r="B40" s="74"/>
       <c r="C40" s="79" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D40" s="73" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E40" s="76"/>
       <c r="F40" s="77"/>
@@ -7129,13 +7233,13 @@
     <row r="41" spans="2:6">
       <c r="B41" s="74"/>
       <c r="C41" s="72" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D41" s="73" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E41" s="73" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F41" s="73"/>
     </row>
@@ -7143,10 +7247,10 @@
       <c r="B42" s="74"/>
       <c r="C42" s="75"/>
       <c r="D42" s="73" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E42" s="73" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F42" s="73"/>
     </row>
@@ -7154,33 +7258,33 @@
       <c r="B43" s="74"/>
       <c r="C43" s="78"/>
       <c r="D43" s="79" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E43" s="79" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F43" s="79"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="80"/>
       <c r="C44" s="79" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D44" s="79" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E44" s="76"/>
       <c r="F44" s="77"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="73" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C47" s="72" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D47" s="79" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E47" s="81"/>
       <c r="F47" s="82"/>
@@ -7189,7 +7293,7 @@
       <c r="B48" s="73"/>
       <c r="C48" s="75"/>
       <c r="D48" s="79" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="E48" s="81"/>
       <c r="F48" s="82"/>
@@ -7198,20 +7302,20 @@
       <c r="B49" s="73"/>
       <c r="C49" s="78"/>
       <c r="D49" s="73" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E49" s="81" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F49" s="82"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="73"/>
       <c r="C50" s="73" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D50" s="73" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E50" s="73"/>
       <c r="F50" s="73"/>
@@ -7219,7 +7323,7 @@
     <row r="51" spans="2:6">
       <c r="B51" s="73"/>
       <c r="C51" s="73" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D51" s="73"/>
       <c r="E51" s="73"/>
@@ -7228,7 +7332,7 @@
     <row r="52" spans="2:6">
       <c r="B52" s="73"/>
       <c r="C52" s="73" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D52" s="73"/>
       <c r="E52" s="73"/>
@@ -7240,20 +7344,20 @@
         <v>102</v>
       </c>
       <c r="D53" s="73" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E53" s="73"/>
       <c r="F53" s="73"/>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="73" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C56" s="72" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D56" s="79" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E56" s="81"/>
       <c r="F56" s="82"/>
@@ -7262,7 +7366,7 @@
       <c r="B57" s="73"/>
       <c r="C57" s="75"/>
       <c r="D57" s="79" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="E57" s="81"/>
       <c r="F57" s="82"/>
@@ -7271,20 +7375,20 @@
       <c r="B58" s="73"/>
       <c r="C58" s="78"/>
       <c r="D58" s="73" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E58" s="81" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F58" s="82"/>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="73"/>
       <c r="C59" s="73" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D59" s="73" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E59" s="73"/>
       <c r="F59" s="73"/>
@@ -7292,7 +7396,7 @@
     <row r="60" spans="2:6">
       <c r="B60" s="73"/>
       <c r="C60" s="73" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D60" s="73"/>
       <c r="E60" s="73"/>
@@ -7301,7 +7405,7 @@
     <row r="61" spans="2:6">
       <c r="B61" s="73"/>
       <c r="C61" s="73" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D61" s="73"/>
       <c r="E61" s="73"/>
@@ -7313,7 +7417,7 @@
         <v>102</v>
       </c>
       <c r="D62" s="73" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E62" s="73"/>
       <c r="F62" s="73"/>
@@ -7323,13 +7427,13 @@
         <v>46</v>
       </c>
       <c r="C65" s="73" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D65" s="79" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E65" s="79" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F65" s="79"/>
     </row>
@@ -7337,10 +7441,10 @@
       <c r="B66" s="75"/>
       <c r="C66" s="73"/>
       <c r="D66" s="79" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="E66" s="79" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="F66" s="79"/>
     </row>
@@ -7348,10 +7452,10 @@
       <c r="B67" s="75"/>
       <c r="C67" s="73"/>
       <c r="D67" s="79" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E67" s="79" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F67" s="79"/>
     </row>
@@ -7359,7 +7463,7 @@
       <c r="B68" s="75"/>
       <c r="C68" s="73"/>
       <c r="D68" s="79" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E68" s="79" t="s">
         <v>44</v>
@@ -7370,36 +7474,36 @@
       <c r="B69" s="75"/>
       <c r="C69" s="73"/>
       <c r="D69" s="79" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E69" s="79" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F69" s="79"/>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="75"/>
       <c r="C70" s="73" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D70" s="79" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E70" s="79" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F70" s="79"/>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="75"/>
       <c r="C71" s="73" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D71" s="79" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="E71" s="79" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F71" s="79"/>
     </row>
@@ -7407,7 +7511,7 @@
       <c r="B72" s="75"/>
       <c r="C72" s="73"/>
       <c r="D72" s="79" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E72" s="76"/>
       <c r="F72" s="77"/>
@@ -7416,23 +7520,23 @@
       <c r="B73" s="75"/>
       <c r="C73" s="73"/>
       <c r="D73" s="79" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E73" s="79" t="s">
         <v>44</v>
       </c>
       <c r="F73" s="79" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" s="75"/>
       <c r="C74" s="73"/>
       <c r="D74" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="E74" s="130" t="s">
-        <v>217</v>
+        <v>228</v>
+      </c>
+      <c r="E74" s="133" t="s">
+        <v>229</v>
       </c>
       <c r="F74" s="79"/>
     </row>
@@ -7440,10 +7544,10 @@
       <c r="B75" s="75"/>
       <c r="C75" s="73"/>
       <c r="D75" s="79" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="E75" s="79" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F75" s="79"/>
     </row>
@@ -7451,10 +7555,10 @@
       <c r="B76" s="75"/>
       <c r="C76" s="73"/>
       <c r="D76" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="E76" s="130" t="s">
-        <v>221</v>
+        <v>232</v>
+      </c>
+      <c r="E76" s="133" t="s">
+        <v>233</v>
       </c>
       <c r="F76" s="79"/>
     </row>
@@ -7462,10 +7566,10 @@
       <c r="B77" s="75"/>
       <c r="C77" s="73"/>
       <c r="D77" s="79" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E77" s="79" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F77" s="79"/>
     </row>
@@ -7475,10 +7579,10 @@
         <v>102</v>
       </c>
       <c r="D78" s="79" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E78" s="73" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="F78" s="73"/>
     </row>
@@ -7486,33 +7590,33 @@
       <c r="B79" s="78"/>
       <c r="C79" s="78"/>
       <c r="D79" s="79" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E79" s="73" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F79" s="73"/>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="75"/>
       <c r="C80" s="73" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D80" s="79" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E80" s="81" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F80" s="82"/>
     </row>
     <row r="81" spans="2:6">
       <c r="B81" s="75"/>
       <c r="C81" s="79" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D81" s="73" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="E81" s="73"/>
       <c r="F81" s="73"/>
@@ -7520,10 +7624,10 @@
     <row r="82" spans="2:6">
       <c r="B82" s="75"/>
       <c r="C82" s="79" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D82" s="79" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E82" s="76"/>
       <c r="F82" s="77"/>
@@ -7552,16 +7656,16 @@
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="73" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C89" s="73" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D89" s="79" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E89" s="79" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="F89" s="79"/>
     </row>
@@ -7569,10 +7673,10 @@
       <c r="B90" s="73"/>
       <c r="C90" s="73"/>
       <c r="D90" s="79" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="E90" s="79" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="F90" s="79"/>
     </row>
@@ -7580,7 +7684,7 @@
       <c r="B91" s="73"/>
       <c r="C91" s="73"/>
       <c r="D91" s="79" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E91" s="79"/>
       <c r="F91" s="79"/>
@@ -7589,10 +7693,10 @@
       <c r="B92" s="73"/>
       <c r="C92" s="73"/>
       <c r="D92" s="79" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="E92" s="79" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="F92" s="79"/>
     </row>
@@ -7600,7 +7704,7 @@
       <c r="B93" s="73"/>
       <c r="C93" s="73"/>
       <c r="D93" s="79" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E93" s="79"/>
       <c r="F93" s="79"/>
@@ -7609,7 +7713,7 @@
       <c r="B94" s="73"/>
       <c r="C94" s="73"/>
       <c r="D94" s="79" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E94" s="79"/>
       <c r="F94" s="79"/>
@@ -7627,7 +7731,7 @@
       <c r="B96" s="73"/>
       <c r="C96" s="73"/>
       <c r="D96" s="79" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E96" s="79"/>
       <c r="F96" s="79"/>
@@ -7636,10 +7740,10 @@
       <c r="B97" s="73"/>
       <c r="C97" s="73"/>
       <c r="D97" s="79" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E97" s="79" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="F97" s="79"/>
     </row>
@@ -7647,10 +7751,10 @@
       <c r="B98" s="73"/>
       <c r="C98" s="86"/>
       <c r="D98" s="79" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="E98" s="87" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F98" s="79"/>
     </row>
@@ -7658,10 +7762,10 @@
       <c r="B99" s="73"/>
       <c r="C99" s="86"/>
       <c r="D99" s="79" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E99" s="87" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F99" s="79"/>
     </row>
@@ -7669,7 +7773,7 @@
       <c r="B100" s="73"/>
       <c r="C100" s="86"/>
       <c r="D100" s="79" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E100" s="79"/>
       <c r="F100" s="79"/>
@@ -7678,7 +7782,7 @@
       <c r="B101" s="73"/>
       <c r="C101" s="86"/>
       <c r="D101" s="79" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E101" s="79"/>
       <c r="F101" s="79"/>
@@ -7687,7 +7791,7 @@
       <c r="B102" s="73"/>
       <c r="C102" s="86"/>
       <c r="D102" s="79" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E102" s="79"/>
       <c r="F102" s="79"/>
@@ -7696,7 +7800,7 @@
       <c r="B103" s="73"/>
       <c r="C103" s="86"/>
       <c r="D103" s="79" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E103" s="79"/>
       <c r="F103" s="79"/>
@@ -7705,7 +7809,7 @@
       <c r="B104" s="73"/>
       <c r="C104" s="86"/>
       <c r="D104" s="79" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E104" s="79"/>
       <c r="F104" s="79"/>
@@ -7714,7 +7818,7 @@
       <c r="B105" s="73"/>
       <c r="C105" s="86"/>
       <c r="D105" s="79" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E105" s="79"/>
       <c r="F105" s="79"/>
@@ -7723,7 +7827,7 @@
       <c r="B106" s="73"/>
       <c r="C106" s="86"/>
       <c r="D106" s="79" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E106" s="79"/>
       <c r="F106" s="79"/>
@@ -7732,10 +7836,10 @@
       <c r="B107" s="73"/>
       <c r="C107" s="86"/>
       <c r="D107" s="79" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E107" s="79" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F107" s="79"/>
     </row>
@@ -7743,10 +7847,10 @@
       <c r="B108" s="73"/>
       <c r="C108" s="86"/>
       <c r="D108" s="73" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="E108" s="79" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="F108" s="79"/>
     </row>
@@ -7755,7 +7859,7 @@
       <c r="C109" s="86"/>
       <c r="D109" s="73"/>
       <c r="E109" s="79" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="F109" s="79"/>
     </row>
@@ -7764,7 +7868,7 @@
       <c r="C110" s="86"/>
       <c r="D110" s="73"/>
       <c r="E110" s="79" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F110" s="79"/>
     </row>
@@ -7773,7 +7877,7 @@
       <c r="C111" s="86"/>
       <c r="D111" s="73"/>
       <c r="E111" s="79" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="F111" s="79"/>
     </row>
@@ -7782,20 +7886,20 @@
       <c r="C112" s="85"/>
       <c r="D112" s="73"/>
       <c r="E112" s="79" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F112" s="79"/>
     </row>
     <row r="113" spans="2:6">
       <c r="B113" s="73"/>
       <c r="C113" s="73" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D113" s="79" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="E113" s="79" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F113" s="79"/>
     </row>
@@ -7803,10 +7907,10 @@
       <c r="B114" s="73"/>
       <c r="C114" s="73"/>
       <c r="D114" s="73" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="E114" s="79" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F114" s="79"/>
     </row>
@@ -7815,7 +7919,7 @@
       <c r="C115" s="73"/>
       <c r="D115" s="73"/>
       <c r="E115" s="79" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="F115" s="79"/>
     </row>
@@ -7824,7 +7928,7 @@
       <c r="C116" s="73"/>
       <c r="D116" s="73"/>
       <c r="E116" s="79" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F116" s="79"/>
     </row>
@@ -7833,7 +7937,7 @@
       <c r="C117" s="73"/>
       <c r="D117" s="73"/>
       <c r="E117" s="79" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F117" s="79"/>
     </row>
@@ -7842,7 +7946,7 @@
       <c r="C118" s="73"/>
       <c r="D118" s="73"/>
       <c r="E118" s="79" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="F118" s="79"/>
     </row>
@@ -7851,7 +7955,7 @@
       <c r="C119" s="73"/>
       <c r="D119" s="73"/>
       <c r="E119" s="79" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="F119" s="79"/>
     </row>
@@ -7860,7 +7964,7 @@
       <c r="C120" s="73"/>
       <c r="D120" s="73"/>
       <c r="E120" s="79" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="F120" s="79"/>
     </row>
@@ -7869,7 +7973,7 @@
       <c r="C121" s="73"/>
       <c r="D121" s="73"/>
       <c r="E121" s="79" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="F121" s="79"/>
     </row>
@@ -7877,10 +7981,10 @@
       <c r="B122" s="73"/>
       <c r="C122" s="73"/>
       <c r="D122" s="73" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="E122" s="79" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="F122" s="79"/>
     </row>
@@ -7889,7 +7993,7 @@
       <c r="C123" s="73"/>
       <c r="D123" s="73"/>
       <c r="E123" s="79" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="F123" s="79"/>
     </row>
@@ -7898,7 +8002,7 @@
       <c r="C124" s="73"/>
       <c r="D124" s="73"/>
       <c r="E124" s="79" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F124" s="79"/>
     </row>
@@ -7907,7 +8011,7 @@
       <c r="C125" s="73"/>
       <c r="D125" s="73"/>
       <c r="E125" s="79" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="F125" s="79"/>
     </row>
@@ -7916,7 +8020,7 @@
       <c r="C126" s="73"/>
       <c r="D126" s="73"/>
       <c r="E126" s="79" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F126" s="79"/>
     </row>
@@ -7925,7 +8029,7 @@
       <c r="C127" s="73"/>
       <c r="D127" s="73"/>
       <c r="E127" s="79" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F127" s="79"/>
     </row>
@@ -7933,10 +8037,10 @@
       <c r="B128" s="73"/>
       <c r="C128" s="73"/>
       <c r="D128" s="73" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E128" s="79" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F128" s="79"/>
     </row>
@@ -7945,7 +8049,7 @@
       <c r="C129" s="73"/>
       <c r="D129" s="73"/>
       <c r="E129" s="79" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F129" s="79"/>
     </row>
@@ -7954,7 +8058,7 @@
       <c r="C130" s="73"/>
       <c r="D130" s="73"/>
       <c r="E130" s="79" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="F130" s="79"/>
     </row>
@@ -7963,17 +8067,17 @@
       <c r="C131" s="73"/>
       <c r="D131" s="73"/>
       <c r="E131" s="79" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="F131" s="79"/>
     </row>
     <row r="132" spans="2:6">
       <c r="B132" s="73"/>
       <c r="C132" s="73" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D132" s="79" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E132" s="79"/>
       <c r="F132" s="79"/>
@@ -7982,7 +8086,7 @@
       <c r="B133" s="73"/>
       <c r="C133" s="73"/>
       <c r="D133" s="79" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="E133" s="79"/>
       <c r="F133" s="79"/>
@@ -7991,7 +8095,7 @@
       <c r="B134" s="73"/>
       <c r="C134" s="73"/>
       <c r="D134" s="79" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="E134" s="79"/>
       <c r="F134" s="79"/>
@@ -8000,7 +8104,7 @@
       <c r="B135" s="73"/>
       <c r="C135" s="73"/>
       <c r="D135" s="79" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="E135" s="79"/>
       <c r="F135" s="79"/>
@@ -8010,10 +8114,10 @@
         <v>89</v>
       </c>
       <c r="C138" s="79" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="D138" s="88" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="E138" s="88"/>
       <c r="F138" s="88"/>
@@ -8021,10 +8125,10 @@
     <row r="139" spans="2:6">
       <c r="B139" s="73"/>
       <c r="C139" s="79" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="D139" s="88" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="E139" s="88"/>
       <c r="F139" s="88"/>
@@ -8032,10 +8136,10 @@
     <row r="140" spans="2:6">
       <c r="B140" s="73"/>
       <c r="C140" s="79" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D140" s="88" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="E140" s="88"/>
       <c r="F140" s="88"/>
@@ -8043,10 +8147,10 @@
     <row r="141" spans="2:6">
       <c r="B141" s="73"/>
       <c r="C141" s="79" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="D141" s="73" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="E141" s="73"/>
       <c r="F141" s="73"/>
@@ -8058,17 +8162,17 @@
       <c r="C144" s="79"/>
       <c r="D144" s="79"/>
       <c r="E144" s="87" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F144" s="87"/>
     </row>
     <row r="145" spans="2:6">
       <c r="B145" s="73"/>
       <c r="C145" s="73" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D145" s="79" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E145" s="79"/>
       <c r="F145" s="79"/>
@@ -8077,7 +8181,7 @@
       <c r="B146" s="73"/>
       <c r="C146" s="73"/>
       <c r="D146" s="79" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="E146" s="79"/>
       <c r="F146" s="79"/>
@@ -8095,7 +8199,7 @@
       <c r="B148" s="73"/>
       <c r="C148" s="73"/>
       <c r="D148" s="79" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="E148" s="79"/>
       <c r="F148" s="79"/>
@@ -8104,20 +8208,20 @@
       <c r="B149" s="73"/>
       <c r="C149" s="73"/>
       <c r="D149" s="79" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E149" s="79" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="F149" s="79"/>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="73"/>
       <c r="C150" s="72" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D150" s="79" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="E150" s="79"/>
       <c r="F150" s="79"/>
@@ -8126,7 +8230,7 @@
       <c r="B151" s="73"/>
       <c r="C151" s="75"/>
       <c r="D151" s="79" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E151" s="79"/>
       <c r="F151" s="79"/>
@@ -8135,7 +8239,7 @@
       <c r="B152" s="73"/>
       <c r="C152" s="75"/>
       <c r="D152" s="79" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E152" s="79"/>
       <c r="F152" s="79"/>
@@ -8144,7 +8248,7 @@
       <c r="B153" s="73"/>
       <c r="C153" s="75"/>
       <c r="D153" s="79" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E153" s="79"/>
       <c r="F153" s="79"/>
@@ -8153,7 +8257,7 @@
       <c r="B154" s="73"/>
       <c r="C154" s="75"/>
       <c r="D154" s="79" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="E154" s="79"/>
       <c r="F154" s="79"/>
@@ -8162,7 +8266,7 @@
       <c r="B155" s="73"/>
       <c r="C155" s="78"/>
       <c r="D155" s="79" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="E155" s="79"/>
       <c r="F155" s="79"/>
@@ -8170,10 +8274,10 @@
     <row r="156" spans="2:6">
       <c r="B156" s="73"/>
       <c r="C156" s="73" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D156" s="79" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="E156" s="79"/>
       <c r="F156" s="79"/>
@@ -8182,7 +8286,7 @@
       <c r="B157" s="73"/>
       <c r="C157" s="73"/>
       <c r="D157" s="79" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E157" s="79"/>
       <c r="F157" s="79"/>
@@ -8191,7 +8295,7 @@
       <c r="B158" s="73"/>
       <c r="C158" s="73"/>
       <c r="D158" s="79" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="E158" s="79"/>
       <c r="F158" s="79"/>
@@ -8200,10 +8304,10 @@
       <c r="B159" s="73"/>
       <c r="C159" s="73"/>
       <c r="D159" s="79" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="E159" s="79" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F159" s="79"/>
     </row>
@@ -8215,13 +8319,13 @@
         <v>91</v>
       </c>
       <c r="C162" s="72" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="D162" s="73" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="E162" s="79" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="F162" s="79"/>
     </row>
@@ -8230,7 +8334,7 @@
       <c r="C163" s="75"/>
       <c r="D163" s="73"/>
       <c r="E163" s="79" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F163" s="79"/>
     </row>
@@ -8238,10 +8342,10 @@
       <c r="B164" s="73"/>
       <c r="C164" s="75"/>
       <c r="D164" s="73" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="E164" s="79" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="F164" s="79"/>
     </row>
@@ -8250,7 +8354,7 @@
       <c r="C165" s="75"/>
       <c r="D165" s="73"/>
       <c r="E165" s="79" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F165" s="79"/>
     </row>
@@ -8261,7 +8365,7 @@
         <v>60</v>
       </c>
       <c r="E166" s="79" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="F166" s="79"/>
     </row>
@@ -8270,20 +8374,20 @@
       <c r="C167" s="78"/>
       <c r="D167" s="78"/>
       <c r="E167" s="79" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F167" s="79"/>
     </row>
     <row r="168" spans="2:6">
       <c r="B168" s="73"/>
       <c r="C168" s="79" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="D168" s="79" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="E168" s="79" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="F168" s="79"/>
     </row>
@@ -8400,52 +8504,52 @@
         <v>4</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" ht="81" spans="2:10">
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="J3" s="44"/>
     </row>
@@ -8455,16 +8559,16 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="36" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="54"/>
@@ -8475,16 +8579,16 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="12" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="J5" s="12"/>
     </row>
@@ -8494,10 +8598,10 @@
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
       <c r="F6" s="44" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
@@ -8509,39 +8613,39 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="12" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="J7" s="12"/>
     </row>
     <row r="8" ht="94.5" spans="2:10">
       <c r="B8" s="14"/>
       <c r="C8" s="39" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="H8" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="I8" s="43" t="s">
         <v>326</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>314</v>
       </c>
       <c r="J8" s="44"/>
     </row>
@@ -8551,10 +8655,10 @@
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="44" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -8566,10 +8670,10 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="44" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
@@ -8581,10 +8685,10 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="44" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
@@ -8596,10 +8700,10 @@
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="44" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
@@ -8611,10 +8715,10 @@
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
       <c r="F13" s="44" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
@@ -8628,16 +8732,16 @@
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="44" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="J14" s="43"/>
     </row>
@@ -8647,16 +8751,16 @@
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
       <c r="F15" s="44" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="J15" s="43"/>
     </row>
@@ -8666,37 +8770,37 @@
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="36" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="J16" s="12"/>
     </row>
     <row r="17" ht="54" spans="2:10">
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="36" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="J17" s="12"/>
     </row>
@@ -8708,17 +8812,17 @@
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="43" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="H18" s="43"/>
       <c r="I18" s="43" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" ht="54" spans="2:10">
@@ -8727,19 +8831,19 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="12" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" ht="67.5" spans="2:10">
@@ -8748,16 +8852,16 @@
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
       <c r="F20" s="44" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="J20" s="43"/>
     </row>
@@ -8767,16 +8871,16 @@
       <c r="D21" s="42"/>
       <c r="E21" s="42"/>
       <c r="F21" s="44" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I21" s="43" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="J21" s="43"/>
     </row>
@@ -8786,16 +8890,16 @@
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="36" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="J22" s="12"/>
     </row>
@@ -8805,13 +8909,13 @@
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="36" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -8822,13 +8926,13 @@
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="12" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -8839,13 +8943,13 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="36" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -8856,13 +8960,13 @@
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="12" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -8873,13 +8977,13 @@
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="36" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -8890,13 +8994,13 @@
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="36" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -8907,13 +9011,13 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="36" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -8924,13 +9028,13 @@
       <c r="D30" s="42"/>
       <c r="E30" s="42"/>
       <c r="F30" s="44" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I30" s="43"/>
       <c r="J30" s="43"/>
@@ -8941,13 +9045,13 @@
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="12" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
@@ -8958,13 +9062,13 @@
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="12" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
@@ -8975,13 +9079,13 @@
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="12" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
@@ -8992,13 +9096,13 @@
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="36" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
@@ -9009,13 +9113,13 @@
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="12" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
@@ -9026,13 +9130,13 @@
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="12" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
@@ -9043,13 +9147,13 @@
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="36" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
@@ -9060,13 +9164,13 @@
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="36" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
@@ -9077,13 +9181,13 @@
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="12" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
@@ -9094,10 +9198,10 @@
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
       <c r="F40" s="43" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="H40" s="43"/>
       <c r="I40" s="43"/>
@@ -9109,10 +9213,10 @@
       <c r="D41" s="42"/>
       <c r="E41" s="42"/>
       <c r="F41" s="43" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="H41" s="43"/>
       <c r="I41" s="43"/>
@@ -9124,10 +9228,10 @@
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
       <c r="F42" s="43" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="G42" s="44" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="H42" s="43"/>
       <c r="I42" s="43"/>
@@ -9139,10 +9243,10 @@
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
       <c r="F43" s="43" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="H43" s="43"/>
       <c r="I43" s="43"/>
@@ -9154,13 +9258,13 @@
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="12" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
@@ -9171,13 +9275,13 @@
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="12" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
@@ -9188,13 +9292,13 @@
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="12" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
@@ -9205,13 +9309,13 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="12" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
@@ -9222,13 +9326,13 @@
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="12" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
@@ -9239,13 +9343,13 @@
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="12" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
@@ -9253,18 +9357,18 @@
     <row r="50" ht="54" spans="2:10">
       <c r="B50" s="14"/>
       <c r="C50" s="14" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="12" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
@@ -9275,19 +9379,19 @@
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="12" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="52" ht="67.5" spans="2:10">
@@ -9296,13 +9400,13 @@
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="36" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
@@ -9313,10 +9417,10 @@
       <c r="D53" s="42"/>
       <c r="E53" s="42"/>
       <c r="F53" s="44" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="G53" s="44" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="H53" s="43"/>
       <c r="I53" s="43"/>
@@ -9328,10 +9432,10 @@
       <c r="D54" s="42"/>
       <c r="E54" s="42"/>
       <c r="F54" s="44" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="G54" s="44" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="H54" s="43"/>
       <c r="I54" s="43"/>
@@ -9343,10 +9447,10 @@
       <c r="D55" s="42"/>
       <c r="E55" s="42"/>
       <c r="F55" s="44" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="G55" s="44" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="H55" s="43"/>
       <c r="I55" s="43"/>
@@ -9358,10 +9462,10 @@
       <c r="D56" s="42"/>
       <c r="E56" s="42"/>
       <c r="F56" s="44" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="G56" s="44" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="H56" s="43"/>
       <c r="I56" s="43"/>
@@ -9373,10 +9477,10 @@
       <c r="D57" s="42"/>
       <c r="E57" s="42"/>
       <c r="F57" s="44" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="G57" s="44" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="H57" s="43"/>
       <c r="I57" s="43"/>
@@ -9388,10 +9492,10 @@
       <c r="D58" s="42"/>
       <c r="E58" s="42"/>
       <c r="F58" s="44" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="G58" s="44" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="H58" s="43"/>
       <c r="I58" s="43"/>
@@ -9403,10 +9507,10 @@
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="36" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="G59" s="36" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
@@ -9418,16 +9522,16 @@
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="12" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="J60" s="12"/>
     </row>
@@ -9437,13 +9541,13 @@
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="12" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="G61" s="36" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
@@ -9454,13 +9558,13 @@
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="12" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="G62" s="36" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
@@ -9471,13 +9575,13 @@
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="36" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
@@ -9488,13 +9592,13 @@
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="12" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
@@ -9505,13 +9609,13 @@
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="12" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="G65" s="36" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
@@ -9522,13 +9626,13 @@
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="12" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="G66" s="36" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
@@ -9539,13 +9643,13 @@
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="12" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="G67" s="36" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
@@ -9556,13 +9660,13 @@
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="12" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="G68" s="36" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
@@ -9573,13 +9677,13 @@
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="12" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="G69" s="36" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
@@ -9590,13 +9694,13 @@
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="36" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="G70" s="36" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
@@ -9604,18 +9708,18 @@
     <row r="71" ht="27" spans="2:10">
       <c r="B71" s="14"/>
       <c r="C71" s="14" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="12" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="G71" s="36" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
@@ -9626,13 +9730,13 @@
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="12" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="G72" s="36" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
@@ -9643,13 +9747,13 @@
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="12" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="G73" s="36" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
@@ -9660,13 +9764,13 @@
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="12" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="G74" s="36" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
@@ -9677,10 +9781,10 @@
       <c r="D75" s="42"/>
       <c r="E75" s="42"/>
       <c r="F75" s="44" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="G75" s="44" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="H75" s="43"/>
       <c r="I75" s="43"/>
@@ -9692,13 +9796,13 @@
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
       <c r="F76" s="36" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="G76" s="36" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
@@ -9709,16 +9813,16 @@
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="36" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="G77" s="36" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="J77" s="12"/>
     </row>
@@ -9728,19 +9832,19 @@
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="12" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="G78" s="36" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="J78" s="36" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79" ht="94.5" spans="2:10">
@@ -9750,13 +9854,13 @@
         <v>18</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="F79" s="44" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="G79" s="44" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="H79" s="43"/>
       <c r="I79" s="43"/>
@@ -9768,13 +9872,13 @@
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="12" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="G80" s="36" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
@@ -9782,18 +9886,18 @@
     <row r="81" ht="54" spans="2:10">
       <c r="B81" s="14"/>
       <c r="C81" s="14" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="12" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="G81" s="36" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
@@ -9804,13 +9908,13 @@
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="36" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="G82" s="36" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
@@ -9821,13 +9925,13 @@
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="12" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="G83" s="36" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
@@ -9838,13 +9942,13 @@
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="12" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="G84" s="36" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
@@ -9857,10 +9961,10 @@
       </c>
       <c r="E85" s="42"/>
       <c r="F85" s="43" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="G85" s="44" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="H85" s="43"/>
       <c r="I85" s="43"/>
@@ -9874,10 +9978,10 @@
       </c>
       <c r="E86" s="42"/>
       <c r="F86" s="43" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="G86" s="44" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="H86" s="43"/>
       <c r="I86" s="43"/>
@@ -9891,10 +9995,10 @@
       </c>
       <c r="E87" s="42"/>
       <c r="F87" s="43" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="G87" s="44" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="H87" s="43"/>
       <c r="I87" s="43"/>
@@ -9908,10 +10012,10 @@
       </c>
       <c r="E88" s="42"/>
       <c r="F88" s="43" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="G88" s="44" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="H88" s="43"/>
       <c r="I88" s="43"/>
@@ -9925,10 +10029,10 @@
       </c>
       <c r="E89" s="42"/>
       <c r="F89" s="43" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="G89" s="44" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="H89" s="43"/>
       <c r="I89" s="43"/>
@@ -9942,10 +10046,10 @@
       </c>
       <c r="E90" s="42"/>
       <c r="F90" s="43" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="G90" s="44" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="H90" s="43"/>
       <c r="I90" s="43"/>
@@ -9957,10 +10061,10 @@
       <c r="D91" s="42"/>
       <c r="E91" s="42"/>
       <c r="F91" s="43" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="G91" s="44" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="H91" s="43"/>
       <c r="I91" s="43"/>
@@ -9972,10 +10076,10 @@
       <c r="D92" s="42"/>
       <c r="E92" s="42"/>
       <c r="F92" s="43" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="G92" s="44" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="H92" s="43"/>
       <c r="I92" s="43"/>
@@ -9998,13 +10102,13 @@
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="12" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="G94" s="36" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
@@ -10012,22 +10116,22 @@
     <row r="95" ht="310.5" spans="2:10">
       <c r="B95" s="14"/>
       <c r="C95" s="39" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="G95" s="36" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I95" s="12"/>
       <c r="J95" s="36" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="96" ht="94.5" spans="2:10">
@@ -10036,16 +10140,16 @@
       <c r="D96" s="42"/>
       <c r="E96" s="42"/>
       <c r="F96" s="44" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="G96" s="44" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="H96" s="43" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I96" s="43" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="J96" s="43"/>
     </row>
@@ -10055,10 +10159,10 @@
       <c r="D97" s="42"/>
       <c r="E97" s="42"/>
       <c r="F97" s="44" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="G97" s="44" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="H97" s="43"/>
       <c r="I97" s="43"/>
@@ -10067,18 +10171,18 @@
     <row r="98" ht="40.5" spans="2:10">
       <c r="B98" s="14"/>
       <c r="C98" s="38" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="D98" s="38"/>
       <c r="E98" s="38"/>
       <c r="F98" s="12" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="G98" s="36" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
@@ -10089,13 +10193,13 @@
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
       <c r="F99" s="12" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="G99" s="36" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
@@ -10106,13 +10210,13 @@
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
       <c r="F100" s="12" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="G100" s="36" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
@@ -10123,13 +10227,13 @@
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
       <c r="F101" s="36" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="G101" s="36" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
@@ -10140,13 +10244,13 @@
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
       <c r="F102" s="36" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="G102" s="36" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
@@ -10196,55 +10300,55 @@
         <v>4</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" ht="94.5" spans="2:10">
       <c r="B3" s="22" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I3" s="43"/>
       <c r="J3" s="44" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" ht="94" customHeight="1" spans="2:10">
@@ -10255,10 +10359,10 @@
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="43" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="H4" s="43"/>
       <c r="I4" s="43"/>
@@ -10272,10 +10376,10 @@
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="43" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="H5" s="43"/>
       <c r="I5" s="43"/>
@@ -10289,10 +10393,10 @@
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="43" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
@@ -10304,17 +10408,17 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="12" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="36" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:10">
@@ -10323,17 +10427,17 @@
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="12" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="36" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:10">
@@ -10344,10 +10448,10 @@
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="43" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -10361,10 +10465,10 @@
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="43" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
@@ -10376,17 +10480,17 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="12" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="37" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="2:10">
@@ -10397,10 +10501,10 @@
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="43" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
@@ -10412,17 +10516,17 @@
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="12" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="36" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" ht="94.5" spans="2:10">
@@ -10433,10 +10537,10 @@
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="43" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="H14" s="43"/>
       <c r="I14" s="43"/>
@@ -10448,17 +10552,17 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="36" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16" ht="67.5" spans="2:10">
@@ -10469,10 +10573,10 @@
       </c>
       <c r="E16" s="42"/>
       <c r="F16" s="43" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
@@ -10486,10 +10590,10 @@
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="43" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
@@ -10501,17 +10605,17 @@
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="12" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="36" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" ht="81" spans="2:10">
@@ -10522,10 +10626,10 @@
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="43" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
@@ -10539,10 +10643,10 @@
       </c>
       <c r="E20" s="42"/>
       <c r="F20" s="43" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="H20" s="43"/>
       <c r="I20" s="43"/>
@@ -10556,10 +10660,10 @@
       </c>
       <c r="E21" s="42"/>
       <c r="F21" s="43" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="H21" s="43"/>
       <c r="I21" s="43"/>
@@ -10573,10 +10677,10 @@
       </c>
       <c r="E22" s="42"/>
       <c r="F22" s="43" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
@@ -10590,10 +10694,10 @@
       </c>
       <c r="E23" s="42"/>
       <c r="F23" s="43" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
@@ -10607,10 +10711,10 @@
       </c>
       <c r="E24" s="42"/>
       <c r="F24" s="43" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="H24" s="43"/>
       <c r="I24" s="43"/>
@@ -10622,31 +10726,31 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="12" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="36" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" ht="142" customHeight="1" spans="2:10">
       <c r="B26" s="22"/>
       <c r="C26" s="46" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="42"/>
       <c r="F26" s="47" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="H26" s="43"/>
       <c r="I26" s="43"/>
@@ -10658,17 +10762,17 @@
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="36" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="28" ht="196" customHeight="1" spans="2:10">
@@ -10679,10 +10783,10 @@
       </c>
       <c r="E28" s="42"/>
       <c r="F28" s="43" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="G28" s="44" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
@@ -10696,10 +10800,10 @@
       </c>
       <c r="E29" s="42"/>
       <c r="F29" s="44" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="H29" s="43"/>
       <c r="I29" s="43"/>
@@ -10713,10 +10817,10 @@
       </c>
       <c r="E30" s="42"/>
       <c r="F30" s="44" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
@@ -10730,10 +10834,10 @@
       </c>
       <c r="E31" s="42"/>
       <c r="F31" s="44" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="G31" s="44" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="H31" s="43"/>
       <c r="I31" s="43"/>
@@ -10745,17 +10849,17 @@
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="12" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="36" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="33" ht="81" spans="2:10">
@@ -10766,10 +10870,10 @@
       </c>
       <c r="E33" s="42"/>
       <c r="F33" s="43" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
@@ -10783,10 +10887,10 @@
       </c>
       <c r="E34" s="42"/>
       <c r="F34" s="43" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="G34" s="44" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="H34" s="43"/>
       <c r="I34" s="43"/>
@@ -10800,10 +10904,10 @@
       </c>
       <c r="E35" s="42"/>
       <c r="F35" s="43" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="H35" s="43"/>
       <c r="I35" s="43"/>
@@ -10817,10 +10921,10 @@
       </c>
       <c r="E36" s="42"/>
       <c r="F36" s="43" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="G36" s="44" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="H36" s="43"/>
       <c r="I36" s="43"/>
@@ -10834,10 +10938,10 @@
       </c>
       <c r="E37" s="42"/>
       <c r="F37" s="43" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="H37" s="43"/>
       <c r="I37" s="43"/>
@@ -10849,31 +10953,31 @@
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="12" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="36" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" ht="145" customHeight="1" spans="2:10">
       <c r="B39" s="22"/>
       <c r="C39" s="46" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D39" s="42" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="42"/>
       <c r="F39" s="50" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="H39" s="43"/>
       <c r="I39" s="43"/>
@@ -10887,10 +10991,10 @@
       </c>
       <c r="E40" s="42"/>
       <c r="F40" s="50" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="H40" s="43"/>
       <c r="I40" s="43"/>
@@ -10904,10 +11008,10 @@
       </c>
       <c r="E41" s="42"/>
       <c r="F41" s="50" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="H41" s="43"/>
       <c r="I41" s="43"/>
@@ -10919,17 +11023,17 @@
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="12" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="36" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
     </row>
     <row r="43" ht="180" customHeight="1" spans="2:10">
@@ -10940,10 +11044,10 @@
       </c>
       <c r="E43" s="42"/>
       <c r="F43" s="43" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="H43" s="43"/>
       <c r="I43" s="43"/>
@@ -10955,17 +11059,17 @@
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="12" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="36" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
     </row>
     <row r="45" ht="94.5" spans="2:10">
@@ -10976,10 +11080,10 @@
       </c>
       <c r="E45" s="42"/>
       <c r="F45" s="43" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="H45" s="43"/>
       <c r="I45" s="43"/>
@@ -10991,42 +11095,42 @@
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="12" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="36" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
     </row>
     <row r="47" ht="201" customHeight="1" spans="2:10">
       <c r="B47" s="22"/>
       <c r="C47" s="14" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D47" s="42" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="G47" s="51" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="H47" s="43" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I47" s="43"/>
       <c r="J47" s="44" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
     </row>
     <row r="48" ht="193" customHeight="1" spans="2:10">
@@ -11037,33 +11141,33 @@
       </c>
       <c r="E48" s="42"/>
       <c r="F48" s="43" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="G48" s="44" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I48" s="43"/>
       <c r="J48" s="44" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
     </row>
     <row r="49" ht="193" customHeight="1" spans="2:10">
       <c r="B49" s="22"/>
       <c r="C49" s="14" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="D49" s="42" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="42"/>
       <c r="F49" s="43" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="G49" s="44" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="H49" s="43"/>
       <c r="I49" s="43"/>
@@ -11077,17 +11181,17 @@
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
       <c r="F50" s="12" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="36" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
     </row>
     <row r="51" ht="94.5" spans="2:10">
@@ -11098,10 +11202,10 @@
       </c>
       <c r="E51" s="42"/>
       <c r="F51" s="43" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="G51" s="44" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="H51" s="43"/>
       <c r="I51" s="43"/>
@@ -11115,10 +11219,10 @@
       </c>
       <c r="E52" s="42"/>
       <c r="F52" s="43" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="G52" s="44" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="H52" s="43"/>
       <c r="I52" s="43"/>
@@ -11127,22 +11231,22 @@
     <row r="53" ht="120" customHeight="1" spans="2:10">
       <c r="B53" s="22"/>
       <c r="C53" s="14" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="12" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="36" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
     </row>
     <row r="54" ht="120" customHeight="1" spans="2:10">
@@ -11153,10 +11257,10 @@
       </c>
       <c r="E54" s="42"/>
       <c r="F54" s="43" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="G54" s="44" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="H54" s="43"/>
       <c r="I54" s="43"/>
@@ -11170,10 +11274,10 @@
       </c>
       <c r="E55" s="42"/>
       <c r="F55" s="43" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="G55" s="44" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="H55" s="43"/>
       <c r="I55" s="43"/>
@@ -11187,10 +11291,10 @@
       </c>
       <c r="E56" s="42"/>
       <c r="F56" s="43" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="G56" s="44" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="H56" s="43"/>
       <c r="I56" s="43"/>
@@ -11204,7 +11308,7 @@
       </c>
       <c r="E57" s="42"/>
       <c r="F57" s="43" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="G57" s="44"/>
       <c r="H57" s="43"/>
@@ -11219,10 +11323,10 @@
       </c>
       <c r="E58" s="42"/>
       <c r="F58" s="43" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="G58" s="44" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="H58" s="43"/>
       <c r="I58" s="43"/>
@@ -11236,10 +11340,10 @@
       </c>
       <c r="E59" s="42"/>
       <c r="F59" s="43" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="G59" s="44" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="H59" s="43"/>
       <c r="I59" s="43"/>
@@ -11253,10 +11357,10 @@
       </c>
       <c r="E60" s="42"/>
       <c r="F60" s="43" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="G60" s="44" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="H60" s="43"/>
       <c r="I60" s="43"/>
@@ -11268,17 +11372,17 @@
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="12" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="G61" s="36" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="36" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
     </row>
     <row r="62" ht="102" customHeight="1" spans="2:10">
@@ -11287,17 +11391,17 @@
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="12" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="G62" s="36" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="36" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -11339,36 +11443,36 @@
         <v>4</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" ht="70" customHeight="1" spans="2:7">
       <c r="B3" s="38" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G3" s="12"/>
     </row>
@@ -11376,13 +11480,13 @@
       <c r="B4" s="14"/>
       <c r="C4" s="40"/>
       <c r="D4" s="12" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G4" s="12"/>
     </row>
@@ -11390,13 +11494,13 @@
       <c r="B5" s="14"/>
       <c r="C5" s="40"/>
       <c r="D5" s="12" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G5" s="12"/>
     </row>
@@ -11404,13 +11508,13 @@
       <c r="B6" s="14"/>
       <c r="C6" s="40"/>
       <c r="D6" s="36" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="G6" s="12"/>
     </row>
@@ -11418,13 +11522,13 @@
       <c r="B7" s="14"/>
       <c r="C7" s="40"/>
       <c r="D7" s="12" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G7" s="12"/>
     </row>
@@ -11432,13 +11536,13 @@
       <c r="B8" s="14"/>
       <c r="C8" s="40"/>
       <c r="D8" s="36" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G8" s="12"/>
     </row>
@@ -11446,13 +11550,13 @@
       <c r="B9" s="14"/>
       <c r="C9" s="40"/>
       <c r="D9" s="12" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G9" s="12"/>
     </row>
@@ -11460,13 +11564,13 @@
       <c r="B10" s="14"/>
       <c r="C10" s="40"/>
       <c r="D10" s="12" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G10" s="12"/>
     </row>
@@ -11474,13 +11578,13 @@
       <c r="B11" s="14"/>
       <c r="C11" s="40"/>
       <c r="D11" s="12" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G11" s="12"/>
     </row>
@@ -11488,13 +11592,13 @@
       <c r="B12" s="14"/>
       <c r="C12" s="40"/>
       <c r="D12" s="12" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G12" s="12"/>
     </row>
@@ -11502,13 +11606,13 @@
       <c r="B13" s="14"/>
       <c r="C13" s="40"/>
       <c r="D13" s="12" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="G13" s="12"/>
     </row>
@@ -11516,10 +11620,10 @@
       <c r="B14" s="14"/>
       <c r="C14" s="40"/>
       <c r="D14" s="12" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -11528,13 +11632,13 @@
       <c r="B15" s="14"/>
       <c r="C15" s="40"/>
       <c r="D15" s="36" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G15" s="12"/>
     </row>
@@ -11542,13 +11646,13 @@
       <c r="B16" s="14"/>
       <c r="C16" s="40"/>
       <c r="D16" s="36" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="G16" s="12"/>
     </row>
@@ -11556,13 +11660,13 @@
       <c r="B17" s="14"/>
       <c r="C17" s="40"/>
       <c r="D17" s="12" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G17" s="12"/>
     </row>
@@ -11570,29 +11674,29 @@
       <c r="B18" s="14"/>
       <c r="C18" s="41"/>
       <c r="D18" s="12" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" ht="54" spans="2:7">
       <c r="B19" s="14"/>
       <c r="C19" s="38" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G19" s="12"/>
     </row>
@@ -11600,13 +11704,13 @@
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="36" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G20" s="12"/>
     </row>
@@ -11614,13 +11718,13 @@
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="12" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G21" s="12"/>
     </row>
@@ -11628,13 +11732,13 @@
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="12" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="G22" s="12"/>
     </row>
@@ -11642,13 +11746,13 @@
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="12" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="G23" s="12"/>
     </row>
@@ -11656,13 +11760,13 @@
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="12" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="G24" s="12"/>
     </row>
@@ -11670,13 +11774,13 @@
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="12" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G25" s="12"/>
     </row>
@@ -11684,13 +11788,13 @@
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="36" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G26" s="12"/>
     </row>
@@ -11698,13 +11802,13 @@
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="12" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="G27" s="12"/>
     </row>
@@ -11712,13 +11816,13 @@
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="12" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G28" s="12"/>
     </row>
@@ -11726,13 +11830,13 @@
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="12" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G29" s="12"/>
     </row>
@@ -11740,13 +11844,13 @@
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="36" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G30" s="12"/>
     </row>
@@ -11754,13 +11858,13 @@
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="36" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G31" s="12"/>
     </row>
@@ -11768,13 +11872,13 @@
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="12" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G32" s="12"/>
     </row>
@@ -11782,13 +11886,13 @@
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="12" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G33" s="12"/>
     </row>
@@ -11796,13 +11900,13 @@
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="12" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G34" s="12"/>
     </row>
@@ -11810,13 +11914,13 @@
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="12" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G35" s="12"/>
     </row>
@@ -11824,13 +11928,13 @@
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="12" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G36" s="12"/>
     </row>
@@ -11838,13 +11942,13 @@
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="12" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G37" s="12"/>
     </row>
@@ -11852,13 +11956,13 @@
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="12" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="G38" s="12"/>
     </row>
@@ -11866,13 +11970,13 @@
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="12" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="G39" s="12"/>
     </row>
@@ -11880,29 +11984,29 @@
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="12" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G40" s="12"/>
     </row>
     <row r="41" ht="54" spans="2:7">
       <c r="B41" s="14"/>
       <c r="C41" s="38" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G41" s="12"/>
     </row>
@@ -11910,13 +12014,13 @@
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="36" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G42" s="12"/>
     </row>
@@ -11924,13 +12028,13 @@
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="12" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G43" s="12"/>
     </row>
@@ -11938,13 +12042,13 @@
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="12" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G44" s="12"/>
     </row>
@@ -11952,13 +12056,13 @@
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="12" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G45" s="12"/>
     </row>
@@ -11966,13 +12070,13 @@
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="12" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="G46" s="12"/>
     </row>
@@ -11980,13 +12084,13 @@
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="12" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G47" s="12"/>
     </row>
@@ -11994,13 +12098,13 @@
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="12" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G48" s="12"/>
     </row>
@@ -12008,13 +12112,13 @@
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="12" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G49" s="12"/>
     </row>
@@ -12022,13 +12126,13 @@
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="12" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G50" s="12"/>
     </row>
@@ -12036,13 +12140,13 @@
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="12" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G51" s="12"/>
     </row>
@@ -12050,29 +12154,29 @@
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="36" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G52" s="12"/>
     </row>
     <row r="53" ht="27" spans="2:7">
       <c r="B53" s="14"/>
       <c r="C53" s="14" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G53" s="12"/>
     </row>
@@ -12080,13 +12184,13 @@
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="12" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G54" s="12"/>
     </row>
@@ -12094,13 +12198,13 @@
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="12" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G55" s="12"/>
     </row>
@@ -12108,13 +12212,13 @@
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="36" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G56" s="12"/>
     </row>
@@ -12122,13 +12226,13 @@
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="36" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="E57" s="36" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G57" s="12"/>
     </row>
@@ -12136,13 +12240,13 @@
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
       <c r="D58" s="36" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="E58" s="36" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G58" s="12"/>
     </row>
@@ -12150,13 +12254,13 @@
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="36" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="E59" s="36" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="G59" s="12"/>
     </row>
@@ -12164,10 +12268,10 @@
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="36" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="E60" s="36" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
@@ -12176,10 +12280,10 @@
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
       <c r="D61" s="36" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="E61" s="36" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
@@ -12188,10 +12292,10 @@
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="36" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="E62" s="36" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
@@ -12200,29 +12304,29 @@
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="12" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="E63" s="36" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G63" s="12"/>
     </row>
     <row r="64" ht="54" spans="2:7">
       <c r="B64" s="14"/>
       <c r="C64" s="14" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="E64" s="36" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G64" s="12"/>
     </row>
@@ -12230,13 +12334,13 @@
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
       <c r="D65" s="12" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="G65" s="12"/>
     </row>
@@ -12244,13 +12348,13 @@
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="12" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="E66" s="36" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="G66" s="12"/>
     </row>
@@ -12258,13 +12362,13 @@
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
       <c r="D67" s="12" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="E67" s="36" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="G67" s="12"/>
     </row>
@@ -12272,13 +12376,13 @@
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
       <c r="D68" s="12" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G68" s="12"/>
     </row>
@@ -12286,13 +12390,13 @@
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
       <c r="D69" s="36" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="E69" s="36" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G69" s="12"/>
     </row>
@@ -12300,13 +12404,13 @@
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
       <c r="D70" s="12" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G70" s="12"/>
     </row>
@@ -12314,13 +12418,13 @@
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
       <c r="D71" s="12" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G71" s="12"/>
     </row>
@@ -12328,45 +12432,45 @@
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
       <c r="D72" s="12" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="E72" s="36" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G72" s="12"/>
     </row>
     <row r="73" ht="310.5" spans="2:7">
       <c r="B73" s="14"/>
       <c r="C73" s="39" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G73" s="36" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="74" ht="81" spans="2:7">
       <c r="B74" s="14"/>
       <c r="C74" s="40"/>
       <c r="D74" s="12" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="E74" s="36" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="G74" s="36"/>
     </row>
@@ -12374,29 +12478,29 @@
       <c r="B75" s="14"/>
       <c r="C75" s="40"/>
       <c r="D75" s="12" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="E75" s="36" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="G75" s="36"/>
     </row>
     <row r="76" ht="81" spans="2:7">
       <c r="B76" s="14"/>
       <c r="C76" s="39" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="D76" s="36" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="E76" s="36" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="G76" s="36"/>
     </row>
@@ -12404,13 +12508,13 @@
       <c r="B77" s="14"/>
       <c r="C77" s="40"/>
       <c r="D77" s="36" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="E77" s="36" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="G77" s="36"/>
     </row>
@@ -12418,13 +12522,13 @@
       <c r="B78" s="14"/>
       <c r="C78" s="40"/>
       <c r="D78" s="12" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="E78" s="36" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="G78" s="36"/>
     </row>
@@ -12432,29 +12536,29 @@
       <c r="B79" s="14"/>
       <c r="C79" s="41"/>
       <c r="D79" s="12" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="G79" s="36"/>
     </row>
     <row r="80" ht="40.5" spans="2:7">
       <c r="B80" s="14"/>
       <c r="C80" s="38" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="E80" s="36" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G80" s="12"/>
     </row>
@@ -12462,13 +12566,13 @@
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
       <c r="D81" s="12" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="E81" s="36" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G81" s="12"/>
     </row>
@@ -12476,13 +12580,13 @@
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
       <c r="D82" s="12" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="E82" s="36" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G82" s="12"/>
     </row>
@@ -12490,13 +12594,13 @@
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
       <c r="D83" s="36" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="E83" s="36" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G83" s="12"/>
     </row>
@@ -12504,13 +12608,13 @@
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
       <c r="D84" s="36" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="E84" s="36" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G84" s="12"/>
     </row>
@@ -12556,36 +12660,36 @@
         <v>4</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" ht="94.5" spans="2:7">
       <c r="B3" s="14" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G3" s="36"/>
     </row>
@@ -12593,13 +12697,13 @@
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="12" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G4" s="36"/>
     </row>
@@ -12607,13 +12711,13 @@
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="12" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G5" s="36"/>
     </row>
@@ -12621,13 +12725,13 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="12" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G6" s="36"/>
     </row>
@@ -12635,13 +12739,13 @@
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="12" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G7" s="37"/>
     </row>
@@ -12649,13 +12753,13 @@
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="12" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G8" s="36"/>
     </row>
@@ -12663,13 +12767,13 @@
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G9" s="36"/>
     </row>
@@ -12677,13 +12781,13 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="12" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G10" s="36"/>
     </row>
@@ -12691,10 +12795,10 @@
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="12" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="36"/>
@@ -12702,16 +12806,16 @@
     <row r="12" ht="27" spans="2:7">
       <c r="B12" s="14"/>
       <c r="C12" s="14" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G12" s="36"/>
     </row>
@@ -12719,13 +12823,13 @@
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G13" s="36"/>
     </row>
@@ -12733,10 +12837,10 @@
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="12" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="36"/>
@@ -12744,16 +12848,16 @@
     <row r="15" ht="27" spans="2:7">
       <c r="B15" s="14"/>
       <c r="C15" s="14" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G15" s="36"/>
     </row>
@@ -12761,13 +12865,13 @@
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="12" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G16" s="36"/>
     </row>
@@ -12775,29 +12879,29 @@
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="12" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G17" s="36"/>
     </row>
     <row r="18" ht="54" spans="2:7">
       <c r="B18" s="14"/>
       <c r="C18" s="14" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G18" s="36"/>
     </row>
@@ -12805,13 +12909,13 @@
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="12" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G19" s="36"/>
     </row>
@@ -12821,29 +12925,29 @@
         <v>121</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G20" s="36"/>
     </row>
     <row r="21" ht="40.5" spans="2:7">
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G21" s="36"/>
     </row>
@@ -12851,13 +12955,13 @@
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="12" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G22" s="36"/>
     </row>
@@ -12894,7 +12998,7 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -12921,7 +13025,7 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="28" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -12933,7 +13037,7 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="28" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -12945,7 +13049,7 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="28" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -12967,10 +13071,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -12982,10 +13086,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -12997,7 +13101,7 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="32" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -13009,7 +13113,7 @@
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="32" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -13021,7 +13125,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="32" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -13043,10 +13147,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
@@ -13058,7 +13162,7 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="32" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
@@ -13070,7 +13174,7 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="32" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
@@ -13082,13 +13186,13 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="2:6">
       <c r="B17" s="1" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="F17" s="34"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="28" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
@@ -13100,10 +13204,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
@@ -13115,7 +13219,7 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="28" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>

--- a/003.python_study/006.project/001.sql_approval/009.________.需求确定/“SQL审核服务”信息汇总.v3.xlsx
+++ b/003.python_study/006.project/001.sql_approval/009.________.需求确定/“SQL审核服务”信息汇总.v3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="762" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="762" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1.调研" sheetId="1" r:id="rId1"/>
@@ -1424,13 +1424,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>审核规则模板</t>
     </r>
     <r>
@@ -3916,7 +3909,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3956,12 +3949,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4367,7 +4354,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4391,16 +4378,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4409,89 +4396,89 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4678,85 +4665,76 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4795,55 +4773,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4870,10 +4836,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4888,10 +4854,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5279,445 +5242,445 @@
   </cols>
   <sheetData>
     <row r="4" ht="20.25" spans="2:18">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="108" t="s">
+      <c r="L4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="108" t="s">
+      <c r="M4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="108" t="s">
+      <c r="N4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="108" t="s">
+      <c r="P4" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="108" t="s">
+      <c r="R4" s="101" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="2:18">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="111" t="s">
+      <c r="H5" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="109" t="s">
+      <c r="I5" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="109" t="s">
+      <c r="J5" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="126" t="s">
+      <c r="K5" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="115" t="s">
+      <c r="L5" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="109" t="s">
+      <c r="M5" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="109" t="s">
+      <c r="N5" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="127" t="s">
+      <c r="O5" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="109" t="s">
+      <c r="P5" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="109" t="s">
+      <c r="Q5" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="127" t="s">
+      <c r="R5" s="120" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" ht="27" spans="2:18">
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="127" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="115"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="127"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="120"/>
     </row>
     <row r="7" ht="40.5" spans="2:18">
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="114" t="s">
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="115" t="s">
+      <c r="G7" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="114" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="114" t="s">
+      <c r="J7" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="109"/>
-      <c r="L7" s="114" t="s">
+      <c r="K7" s="102"/>
+      <c r="L7" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="114" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
     </row>
     <row r="9" ht="29" customHeight="1" spans="2:18">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="111" t="s">
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="112"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="109" t="s">
+      <c r="B10" s="105"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="112"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="109" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
     </row>
     <row r="12" ht="135" customHeight="1" spans="2:18">
-      <c r="B12" s="113"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="109" t="s">
+      <c r="B12" s="106"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="121"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="121"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="123"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="95" t="s">
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="95"/>
-      <c r="H17" s="94">
+      <c r="G17" s="92"/>
+      <c r="H17" s="91">
         <v>171</v>
       </c>
-      <c r="I17" s="128"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="94"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="95" t="s">
+      <c r="B18" s="91"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="95"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="94"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="95" t="s">
+      <c r="B19" s="91"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="95"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
     </row>
     <row r="20" ht="78" customHeight="1" spans="2:18">
-      <c r="B20" s="94"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="95" t="s">
+      <c r="B20" s="91"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="95"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -6214,11 +6177,11 @@
   </cols>
   <sheetData>
     <row r="2" ht="26" customHeight="1" spans="2:3">
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="70" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -6226,51 +6189,51 @@
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:3">
-      <c r="B4" s="73"/>
-      <c r="C4" s="107" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="100" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="73"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="73"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" ht="27" spans="2:3">
-      <c r="B7" s="73"/>
-      <c r="C7" s="107" t="s">
+      <c r="B7" s="70"/>
+      <c r="C7" s="100" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="73"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" ht="13" customHeight="1" spans="2:3">
-      <c r="B9" s="73"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="25" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="100" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="72" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -6292,7 +6255,7 @@
   <sheetPr/>
   <dimension ref="B5:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="F37" sqref="F37:G37"/>
     </sheetView>
   </sheetViews>
@@ -6307,115 +6270,115 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:3">
-      <c r="C5" s="89"/>
+      <c r="C5" s="86"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="93"/>
-      <c r="C7" s="90" t="s">
+      <c r="B7" s="90"/>
+      <c r="C7" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="94"/>
+      <c r="G7" s="91"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="95" t="s">
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="94"/>
+      <c r="G8" s="91"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F9" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="94"/>
+      <c r="G9" s="91"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="95" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="95" t="s">
+      <c r="G10" s="92" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="96"/>
+      <c r="G11" s="93"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94" t="s">
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="94" t="s">
+      <c r="F12" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="94"/>
+      <c r="G12" s="91"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94" t="s">
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="94" t="s">
+      <c r="F13" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="94"/>
+      <c r="G13" s="91"/>
     </row>
     <row r="14" ht="99" customHeight="1" spans="2:7">
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="14" t="s">
         <v>76</v>
       </c>
@@ -6428,8 +6391,8 @@
       <c r="G14" s="38"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
         <v>65</v>
@@ -6442,8 +6405,8 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="12" t="s">
@@ -6454,8 +6417,8 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="12" t="s">
@@ -6466,8 +6429,8 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="12" t="s">
@@ -6478,8 +6441,8 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="93"/>
-      <c r="C19" s="97"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="12" t="s">
@@ -6490,8 +6453,8 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="93"/>
-      <c r="C20" s="91" t="s">
+      <c r="B20" s="90"/>
+      <c r="C20" s="88" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -6502,8 +6465,8 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="93"/>
-      <c r="C21" s="91"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="14" t="s">
         <v>89</v>
       </c>
@@ -6514,8 +6477,8 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="93"/>
-      <c r="C22" s="91"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="14" t="s">
         <v>91</v>
       </c>
@@ -6528,8 +6491,8 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" ht="19" customHeight="1" spans="2:7">
-      <c r="B23" s="93"/>
-      <c r="C23" s="91"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="14"/>
       <c r="E23" s="12" t="s">
         <v>94</v>
@@ -6540,32 +6503,32 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="93"/>
-      <c r="C24" s="90" t="s">
+      <c r="B24" s="90"/>
+      <c r="C24" s="87" t="s">
         <v>96</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="99"/>
-      <c r="G24" s="100"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="97"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="98" t="s">
+      <c r="E25" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="39" t="s">
         <v>100</v>
       </c>
@@ -6576,8 +6539,8 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="40"/>
       <c r="E27" s="14" t="s">
         <v>102</v>
@@ -6588,8 +6551,8 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="41"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14" t="s">
@@ -6598,8 +6561,8 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="14" t="s">
         <v>46</v>
       </c>
@@ -6612,8 +6575,8 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
         <v>107</v>
@@ -6624,8 +6587,8 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
         <v>102</v>
@@ -6636,32 +6599,32 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="98" t="s">
+      <c r="E32" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="F32" s="99"/>
-      <c r="G32" s="100"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
       <c r="D33" s="41"/>
-      <c r="E33" s="98" t="s">
+      <c r="E33" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="F33" s="99"/>
-      <c r="G33" s="100"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="102" t="s">
+      <c r="C34" s="88" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="14" t="s">
@@ -6672,8 +6635,8 @@
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="101"/>
-      <c r="C35" s="102" t="s">
+      <c r="B35" s="88"/>
+      <c r="C35" s="88" t="s">
         <v>115</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -6686,8 +6649,8 @@
       <c r="G35" s="14"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="101"/>
-      <c r="C36" s="102" t="s">
+      <c r="B36" s="88"/>
+      <c r="C36" s="88" t="s">
         <v>118</v>
       </c>
       <c r="D36" s="12" t="s">
@@ -6700,74 +6663,74 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="101"/>
-      <c r="C37" s="102" t="s">
+      <c r="B37" s="88"/>
+      <c r="C37" s="88" t="s">
         <v>121</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="101"/>
-      <c r="C38" s="104" t="s">
+      <c r="B38" s="88"/>
+      <c r="C38" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="105" t="s">
+      <c r="D38" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="105" t="s">
+      <c r="E38" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="F38" s="105" t="s">
+      <c r="F38" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="G38" s="105"/>
+      <c r="G38" s="25"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="101"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="105" t="s">
+      <c r="B39" s="88"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="105" t="s">
+      <c r="E39" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="105" t="s">
+      <c r="F39" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="105"/>
+      <c r="G39" s="25"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="101"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="105" t="s">
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="105" t="s">
+      <c r="E40" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="105" t="s">
+      <c r="F40" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="G40" s="105"/>
+      <c r="G40" s="25"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="101"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="105" t="s">
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="105" t="s">
+      <c r="E41" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="F41" s="105" t="s">
+      <c r="F41" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="G41" s="105"/>
+      <c r="G41" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -6825,8 +6788,8 @@
   <sheetPr/>
   <dimension ref="B3:F168"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77:E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6922,1474 +6885,1474 @@
       <c r="F9" s="56"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="64"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" ht="54" spans="2:6">
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="64" t="s">
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="64"/>
+      <c r="F13" s="58"/>
     </row>
     <row r="14" ht="54" spans="2:6">
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="66" t="s">
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="60" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="15" ht="27" spans="2:6">
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="64" t="s">
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="60" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="16" ht="121.5" spans="2:6">
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="66" t="s">
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="60" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="64" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="58" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="18" ht="40.5" spans="2:6">
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="66" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="E18" s="132" t="s">
+      <c r="E18" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="60" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="66" t="s">
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65" t="s">
+      <c r="E19" s="58"/>
+      <c r="F19" s="60" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="20" ht="148.5" spans="2:6">
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="66" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65" t="s">
+      <c r="E20" s="58"/>
+      <c r="F20" s="60" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="64" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="F21" s="64"/>
+      <c r="F21" s="58"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="62"/>
-      <c r="C22" s="64" t="s">
+      <c r="B22" s="56"/>
+      <c r="C22" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="62"/>
-      <c r="C23" s="64" t="s">
+      <c r="B23" s="56"/>
+      <c r="C23" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="69"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="62"/>
-      <c r="C24" s="64" t="s">
+      <c r="B24" s="56"/>
+      <c r="C24" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="69"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="62"/>
-      <c r="C25" s="64" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="69"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="70"/>
-      <c r="C26" s="64" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="73" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="76"/>
-      <c r="F30" s="77"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="74"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="73" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="E31" s="76"/>
-      <c r="F31" s="77"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="74"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="73" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="E32" s="73" t="s">
+      <c r="E32" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="F32" s="73"/>
+      <c r="F32" s="56"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="74"/>
-      <c r="C33" s="73" t="s">
+      <c r="B33" s="64"/>
+      <c r="C33" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="79" t="s">
+      <c r="D33" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="79" t="s">
+      <c r="E33" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="F33" s="79"/>
+      <c r="F33" s="58"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="74"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="79" t="s">
+      <c r="B34" s="64"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="E34" s="79" t="s">
+      <c r="E34" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="F34" s="79"/>
+      <c r="F34" s="58"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="74"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="79" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="74"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="79" t="s">
+      <c r="B36" s="64"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="E36" s="79" t="s">
+      <c r="E36" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="F36" s="79" t="s">
+      <c r="F36" s="58" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="74"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="79" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="74"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="79" t="s">
+      <c r="B38" s="64"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="E38" s="79" t="s">
+      <c r="E38" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="F38" s="79"/>
+      <c r="F38" s="58"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="74"/>
-      <c r="C39" s="79" t="s">
+      <c r="B39" s="64"/>
+      <c r="C39" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="D39" s="73" t="s">
+      <c r="D39" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="E39" s="76"/>
-      <c r="F39" s="77"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="67"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="74"/>
-      <c r="C40" s="79" t="s">
+      <c r="B40" s="64"/>
+      <c r="C40" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="D40" s="73" t="s">
+      <c r="D40" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="E40" s="76"/>
-      <c r="F40" s="77"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="67"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="74"/>
-      <c r="C41" s="72" t="s">
+      <c r="B41" s="64"/>
+      <c r="C41" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="D41" s="73" t="s">
+      <c r="D41" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="73" t="s">
+      <c r="E41" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="F41" s="73"/>
+      <c r="F41" s="56"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="74"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="73" t="s">
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="E42" s="73" t="s">
+      <c r="E42" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="F42" s="73"/>
+      <c r="F42" s="56"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="74"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="79" t="s">
+      <c r="B43" s="64"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="E43" s="79" t="s">
+      <c r="E43" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="F43" s="79"/>
+      <c r="F43" s="58"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="80"/>
-      <c r="C44" s="79" t="s">
+      <c r="B44" s="69"/>
+      <c r="C44" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="D44" s="79" t="s">
+      <c r="D44" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="E44" s="76"/>
-      <c r="F44" s="77"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="67"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="72" t="s">
+      <c r="C47" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="D47" s="79" t="s">
+      <c r="D47" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="E47" s="81"/>
-      <c r="F47" s="82"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="74"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="73"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="75"/>
-      <c r="D48" s="79" t="s">
+      <c r="D48" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="E48" s="81"/>
-      <c r="F48" s="82"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="74"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="73"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="73" t="s">
+      <c r="B49" s="70"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="E49" s="81" t="s">
+      <c r="E49" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="F49" s="82"/>
+      <c r="F49" s="74"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="73"/>
-      <c r="C50" s="73" t="s">
+      <c r="B50" s="70"/>
+      <c r="C50" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="73" t="s">
+      <c r="D50" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="73"/>
-      <c r="C51" s="73" t="s">
+      <c r="B51" s="70"/>
+      <c r="C51" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="73"/>
-      <c r="C52" s="73" t="s">
+      <c r="B52" s="70"/>
+      <c r="C52" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="73"/>
-      <c r="C53" s="79" t="s">
+      <c r="B53" s="70"/>
+      <c r="C53" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="73" t="s">
+      <c r="D53" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="C56" s="72" t="s">
+      <c r="C56" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="D56" s="79" t="s">
+      <c r="D56" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="E56" s="81"/>
-      <c r="F56" s="82"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="78"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="73"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="79" t="s">
+      <c r="B57" s="56"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="E57" s="81"/>
-      <c r="F57" s="82"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="78"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="73"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="73" t="s">
+      <c r="B58" s="56"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="E58" s="81" t="s">
+      <c r="E58" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="F58" s="82"/>
+      <c r="F58" s="78"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="73"/>
-      <c r="C59" s="73" t="s">
+      <c r="B59" s="56"/>
+      <c r="C59" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="D59" s="73" t="s">
+      <c r="D59" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="73"/>
-      <c r="C60" s="73" t="s">
+      <c r="B60" s="56"/>
+      <c r="C60" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="73"/>
-      <c r="C61" s="73" t="s">
+      <c r="B61" s="56"/>
+      <c r="C61" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="73"/>
-      <c r="C62" s="79" t="s">
+      <c r="B62" s="56"/>
+      <c r="C62" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="73" t="s">
+      <c r="D62" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="72" t="s">
+      <c r="B65" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C65" s="73" t="s">
+      <c r="C65" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="D65" s="79" t="s">
+      <c r="D65" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="E65" s="79" t="s">
+      <c r="E65" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="F65" s="79"/>
+      <c r="F65" s="58"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="75"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="79" t="s">
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="E66" s="79" t="s">
+      <c r="E66" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="F66" s="79"/>
+      <c r="F66" s="58"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="75"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="79" t="s">
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="E67" s="79" t="s">
+      <c r="E67" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="F67" s="79"/>
+      <c r="F67" s="58"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="75"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="79" t="s">
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="E68" s="79" t="s">
+      <c r="E68" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="F68" s="79"/>
+      <c r="F68" s="58"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="75"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="79" t="s">
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="E69" s="79" t="s">
+      <c r="E69" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="F69" s="79"/>
+      <c r="F69" s="58"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="75"/>
-      <c r="C70" s="73" t="s">
+      <c r="B70" s="56"/>
+      <c r="C70" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="D70" s="79" t="s">
+      <c r="D70" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="E70" s="79" t="s">
+      <c r="E70" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="F70" s="79"/>
+      <c r="F70" s="58"/>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="75"/>
-      <c r="C71" s="73" t="s">
+      <c r="B71" s="56"/>
+      <c r="C71" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="D71" s="79" t="s">
+      <c r="D71" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="E71" s="79" t="s">
+      <c r="E71" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="F71" s="79"/>
+      <c r="F71" s="58"/>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="75"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="79" t="s">
+      <c r="B72" s="56"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="E72" s="76"/>
-      <c r="F72" s="77"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="75"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="79" t="s">
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="E73" s="79" t="s">
+      <c r="E73" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="F73" s="79" t="s">
+      <c r="F73" s="58" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="75"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="79" t="s">
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="E74" s="133" t="s">
+      <c r="E74" s="125" t="s">
         <v>229</v>
       </c>
-      <c r="F74" s="79"/>
+      <c r="F74" s="58"/>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="75"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="79" t="s">
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="E75" s="79" t="s">
+      <c r="E75" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="F75" s="79"/>
+      <c r="F75" s="58"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="75"/>
-      <c r="C76" s="73"/>
-      <c r="D76" s="79" t="s">
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="E76" s="133" t="s">
+      <c r="E76" s="125" t="s">
         <v>233</v>
       </c>
-      <c r="F76" s="79"/>
+      <c r="F76" s="58"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="75"/>
-      <c r="C77" s="73"/>
-      <c r="D77" s="79" t="s">
+      <c r="B77" s="56"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="57" t="s">
         <v>234</v>
       </c>
       <c r="E77" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="F77" s="79"/>
+      <c r="F77" s="58"/>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="75"/>
-      <c r="C78" s="72" t="s">
+      <c r="B78" s="56"/>
+      <c r="C78" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="79" t="s">
+      <c r="D78" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="E78" s="73" t="s">
+      <c r="E78" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="F78" s="73"/>
+      <c r="F78" s="56"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="78"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="79" t="s">
+      <c r="B79" s="56"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="E79" s="73" t="s">
+      <c r="E79" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="F79" s="73"/>
+      <c r="F79" s="56"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="75"/>
-      <c r="C80" s="73" t="s">
+      <c r="B80" s="56"/>
+      <c r="C80" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="D80" s="79" t="s">
+      <c r="D80" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="E80" s="81" t="s">
+      <c r="E80" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="F80" s="82"/>
+      <c r="F80" s="56"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="75"/>
-      <c r="C81" s="79" t="s">
+      <c r="B81" s="56"/>
+      <c r="C81" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="D81" s="73" t="s">
+      <c r="D81" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="E81" s="73"/>
-      <c r="F81" s="73"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="75"/>
-      <c r="C82" s="79" t="s">
+      <c r="B82" s="56"/>
+      <c r="C82" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="D82" s="79" t="s">
+      <c r="D82" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="E82" s="76"/>
-      <c r="F82" s="77"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="73" t="s">
+      <c r="B85" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="C85" s="83" t="s">
+      <c r="C85" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="D85" s="81" t="s">
+      <c r="D85" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="E85" s="84"/>
-      <c r="F85" s="82"/>
+      <c r="E85" s="81"/>
+      <c r="F85" s="74"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="73"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="81" t="s">
+      <c r="B86" s="70"/>
+      <c r="C86" s="82"/>
+      <c r="D86" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="E86" s="84"/>
-      <c r="F86" s="82"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="74"/>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="73" t="s">
+      <c r="B89" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="C89" s="73" t="s">
+      <c r="C89" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="D89" s="79" t="s">
+      <c r="D89" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="E89" s="79" t="s">
+      <c r="E89" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="F89" s="79"/>
+      <c r="F89" s="72"/>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="73"/>
-      <c r="C90" s="73"/>
-      <c r="D90" s="79" t="s">
+      <c r="B90" s="70"/>
+      <c r="C90" s="70"/>
+      <c r="D90" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="E90" s="79" t="s">
+      <c r="E90" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="F90" s="79"/>
+      <c r="F90" s="72"/>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="73"/>
-      <c r="C91" s="73"/>
-      <c r="D91" s="79" t="s">
+      <c r="B91" s="70"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="72" t="s">
         <v>250</v>
       </c>
-      <c r="E91" s="79"/>
-      <c r="F91" s="79"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="73"/>
-      <c r="C92" s="73"/>
-      <c r="D92" s="79" t="s">
+      <c r="B92" s="70"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="E92" s="79" t="s">
+      <c r="E92" s="72" t="s">
         <v>252</v>
       </c>
-      <c r="F92" s="79"/>
+      <c r="F92" s="72"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="73"/>
-      <c r="C93" s="73"/>
-      <c r="D93" s="79" t="s">
+      <c r="B93" s="70"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="E93" s="79"/>
-      <c r="F93" s="79"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="73"/>
-      <c r="C94" s="73"/>
-      <c r="D94" s="79" t="s">
+      <c r="B94" s="70"/>
+      <c r="C94" s="70"/>
+      <c r="D94" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="E94" s="79"/>
-      <c r="F94" s="79"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="72"/>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="73"/>
-      <c r="C95" s="73"/>
-      <c r="D95" s="79" t="s">
+      <c r="B95" s="70"/>
+      <c r="C95" s="70"/>
+      <c r="D95" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="E95" s="79"/>
-      <c r="F95" s="79"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="73"/>
-      <c r="C96" s="73"/>
-      <c r="D96" s="79" t="s">
+      <c r="B96" s="70"/>
+      <c r="C96" s="70"/>
+      <c r="D96" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="E96" s="79"/>
-      <c r="F96" s="79"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="72"/>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="73"/>
-      <c r="C97" s="73"/>
-      <c r="D97" s="79" t="s">
+      <c r="B97" s="70"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="E97" s="79" t="s">
+      <c r="E97" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="F97" s="79"/>
+      <c r="F97" s="72"/>
     </row>
     <row r="98" ht="27" spans="2:6">
-      <c r="B98" s="73"/>
-      <c r="C98" s="86"/>
-      <c r="D98" s="79" t="s">
+      <c r="B98" s="70"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="E98" s="87" t="s">
+      <c r="E98" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="F98" s="79"/>
+      <c r="F98" s="72"/>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="73"/>
-      <c r="C99" s="86"/>
-      <c r="D99" s="79" t="s">
+      <c r="B99" s="70"/>
+      <c r="C99" s="83"/>
+      <c r="D99" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="E99" s="87" t="s">
+      <c r="E99" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="F99" s="79"/>
+      <c r="F99" s="72"/>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="73"/>
-      <c r="C100" s="86"/>
-      <c r="D100" s="79" t="s">
+      <c r="B100" s="70"/>
+      <c r="C100" s="83"/>
+      <c r="D100" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="E100" s="79"/>
-      <c r="F100" s="79"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="72"/>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="73"/>
-      <c r="C101" s="86"/>
-      <c r="D101" s="79" t="s">
+      <c r="B101" s="70"/>
+      <c r="C101" s="83"/>
+      <c r="D101" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="E101" s="79"/>
-      <c r="F101" s="79"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
     </row>
     <row r="102" spans="2:6">
-      <c r="B102" s="73"/>
-      <c r="C102" s="86"/>
-      <c r="D102" s="79" t="s">
+      <c r="B102" s="70"/>
+      <c r="C102" s="83"/>
+      <c r="D102" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="E102" s="79"/>
-      <c r="F102" s="79"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="73"/>
-      <c r="C103" s="86"/>
-      <c r="D103" s="79" t="s">
+      <c r="B103" s="70"/>
+      <c r="C103" s="83"/>
+      <c r="D103" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="E103" s="79"/>
-      <c r="F103" s="79"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
     </row>
     <row r="104" spans="2:6">
-      <c r="B104" s="73"/>
-      <c r="C104" s="86"/>
-      <c r="D104" s="79" t="s">
+      <c r="B104" s="70"/>
+      <c r="C104" s="83"/>
+      <c r="D104" s="72" t="s">
         <v>265</v>
       </c>
-      <c r="E104" s="79"/>
-      <c r="F104" s="79"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="72"/>
     </row>
     <row r="105" spans="2:6">
-      <c r="B105" s="73"/>
-      <c r="C105" s="86"/>
-      <c r="D105" s="79" t="s">
+      <c r="B105" s="70"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="E105" s="79"/>
-      <c r="F105" s="79"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="73"/>
-      <c r="C106" s="86"/>
-      <c r="D106" s="79" t="s">
+      <c r="B106" s="70"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="72" t="s">
         <v>267</v>
       </c>
-      <c r="E106" s="79"/>
-      <c r="F106" s="79"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="73"/>
-      <c r="C107" s="86"/>
-      <c r="D107" s="79" t="s">
+      <c r="B107" s="70"/>
+      <c r="C107" s="83"/>
+      <c r="D107" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="E107" s="79" t="s">
+      <c r="E107" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="F107" s="79"/>
+      <c r="F107" s="72"/>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="73"/>
-      <c r="C108" s="86"/>
-      <c r="D108" s="73" t="s">
+      <c r="B108" s="70"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="70" t="s">
         <v>269</v>
       </c>
-      <c r="E108" s="79" t="s">
+      <c r="E108" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="F108" s="79"/>
+      <c r="F108" s="72"/>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="73"/>
-      <c r="C109" s="86"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="79" t="s">
+      <c r="B109" s="70"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="F109" s="79"/>
+      <c r="F109" s="72"/>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="73"/>
-      <c r="C110" s="86"/>
-      <c r="D110" s="73"/>
-      <c r="E110" s="79" t="s">
+      <c r="B110" s="70"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="72" t="s">
         <v>272</v>
       </c>
-      <c r="F110" s="79"/>
+      <c r="F110" s="72"/>
     </row>
     <row r="111" spans="2:6">
-      <c r="B111" s="73"/>
-      <c r="C111" s="86"/>
-      <c r="D111" s="73"/>
-      <c r="E111" s="79" t="s">
+      <c r="B111" s="70"/>
+      <c r="C111" s="83"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="72" t="s">
         <v>273</v>
       </c>
-      <c r="F111" s="79"/>
+      <c r="F111" s="72"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="73"/>
-      <c r="C112" s="85"/>
-      <c r="D112" s="73"/>
-      <c r="E112" s="79" t="s">
+      <c r="B112" s="70"/>
+      <c r="C112" s="82"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="F112" s="79"/>
+      <c r="F112" s="72"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="73"/>
-      <c r="C113" s="73" t="s">
+      <c r="B113" s="70"/>
+      <c r="C113" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="D113" s="79" t="s">
+      <c r="D113" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="E113" s="79" t="s">
+      <c r="E113" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="F113" s="79"/>
+      <c r="F113" s="72"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="73"/>
-      <c r="C114" s="73"/>
-      <c r="D114" s="73" t="s">
+      <c r="B114" s="70"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="70" t="s">
         <v>277</v>
       </c>
-      <c r="E114" s="79" t="s">
+      <c r="E114" s="72" t="s">
         <v>250</v>
       </c>
-      <c r="F114" s="79"/>
+      <c r="F114" s="72"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="73"/>
-      <c r="C115" s="73"/>
-      <c r="D115" s="73"/>
-      <c r="E115" s="79" t="s">
+      <c r="B115" s="70"/>
+      <c r="C115" s="70"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="F115" s="79"/>
+      <c r="F115" s="72"/>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="73"/>
-      <c r="C116" s="73"/>
-      <c r="D116" s="73"/>
-      <c r="E116" s="79" t="s">
+      <c r="B116" s="70"/>
+      <c r="C116" s="70"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="F116" s="79"/>
+      <c r="F116" s="72"/>
     </row>
     <row r="117" spans="2:6">
-      <c r="B117" s="73"/>
-      <c r="C117" s="73"/>
-      <c r="D117" s="73"/>
-      <c r="E117" s="79" t="s">
+      <c r="B117" s="70"/>
+      <c r="C117" s="70"/>
+      <c r="D117" s="70"/>
+      <c r="E117" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="F117" s="79"/>
+      <c r="F117" s="72"/>
     </row>
     <row r="118" spans="2:6">
-      <c r="B118" s="73"/>
-      <c r="C118" s="73"/>
-      <c r="D118" s="73"/>
-      <c r="E118" s="79" t="s">
+      <c r="B118" s="70"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="F118" s="79"/>
+      <c r="F118" s="72"/>
     </row>
     <row r="119" spans="2:6">
-      <c r="B119" s="73"/>
-      <c r="C119" s="73"/>
-      <c r="D119" s="73"/>
-      <c r="E119" s="79" t="s">
+      <c r="B119" s="70"/>
+      <c r="C119" s="70"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="F119" s="79"/>
+      <c r="F119" s="72"/>
     </row>
     <row r="120" spans="2:6">
-      <c r="B120" s="73"/>
-      <c r="C120" s="73"/>
-      <c r="D120" s="73"/>
-      <c r="E120" s="79" t="s">
+      <c r="B120" s="70"/>
+      <c r="C120" s="70"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="F120" s="79"/>
+      <c r="F120" s="72"/>
     </row>
     <row r="121" spans="2:6">
-      <c r="B121" s="73"/>
-      <c r="C121" s="73"/>
-      <c r="D121" s="73"/>
-      <c r="E121" s="79" t="s">
+      <c r="B121" s="70"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="70"/>
+      <c r="E121" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="F121" s="79"/>
+      <c r="F121" s="72"/>
     </row>
     <row r="122" spans="2:6">
-      <c r="B122" s="73"/>
-      <c r="C122" s="73"/>
-      <c r="D122" s="73" t="s">
+      <c r="B122" s="70"/>
+      <c r="C122" s="70"/>
+      <c r="D122" s="70" t="s">
         <v>269</v>
       </c>
-      <c r="E122" s="79" t="s">
+      <c r="E122" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="F122" s="79"/>
+      <c r="F122" s="72"/>
     </row>
     <row r="123" spans="2:6">
-      <c r="B123" s="73"/>
-      <c r="C123" s="73"/>
-      <c r="D123" s="73"/>
-      <c r="E123" s="79" t="s">
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="F123" s="79"/>
+      <c r="F123" s="72"/>
     </row>
     <row r="124" spans="2:6">
-      <c r="B124" s="73"/>
-      <c r="C124" s="73"/>
-      <c r="D124" s="73"/>
-      <c r="E124" s="79" t="s">
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="72" t="s">
         <v>272</v>
       </c>
-      <c r="F124" s="79"/>
+      <c r="F124" s="72"/>
     </row>
     <row r="125" spans="2:6">
-      <c r="B125" s="73"/>
-      <c r="C125" s="73"/>
-      <c r="D125" s="73"/>
-      <c r="E125" s="79" t="s">
+      <c r="B125" s="70"/>
+      <c r="C125" s="70"/>
+      <c r="D125" s="70"/>
+      <c r="E125" s="72" t="s">
         <v>273</v>
       </c>
-      <c r="F125" s="79"/>
+      <c r="F125" s="72"/>
     </row>
     <row r="126" spans="2:6">
-      <c r="B126" s="73"/>
-      <c r="C126" s="73"/>
-      <c r="D126" s="73"/>
-      <c r="E126" s="79" t="s">
+      <c r="B126" s="70"/>
+      <c r="C126" s="70"/>
+      <c r="D126" s="70"/>
+      <c r="E126" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="F126" s="79"/>
+      <c r="F126" s="72"/>
     </row>
     <row r="127" spans="2:6">
-      <c r="B127" s="73"/>
-      <c r="C127" s="73"/>
-      <c r="D127" s="73"/>
-      <c r="E127" s="79" t="s">
+      <c r="B127" s="70"/>
+      <c r="C127" s="70"/>
+      <c r="D127" s="70"/>
+      <c r="E127" s="72" t="s">
         <v>272</v>
       </c>
-      <c r="F127" s="79"/>
+      <c r="F127" s="72"/>
     </row>
     <row r="128" spans="2:6">
-      <c r="B128" s="73"/>
-      <c r="C128" s="73"/>
-      <c r="D128" s="73" t="s">
+      <c r="B128" s="70"/>
+      <c r="C128" s="70"/>
+      <c r="D128" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="E128" s="79" t="s">
+      <c r="E128" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="F128" s="79"/>
+      <c r="F128" s="72"/>
     </row>
     <row r="129" spans="2:6">
-      <c r="B129" s="73"/>
-      <c r="C129" s="73"/>
-      <c r="D129" s="73"/>
-      <c r="E129" s="79" t="s">
+      <c r="B129" s="70"/>
+      <c r="C129" s="70"/>
+      <c r="D129" s="70"/>
+      <c r="E129" s="72" t="s">
         <v>281</v>
       </c>
-      <c r="F129" s="79"/>
+      <c r="F129" s="72"/>
     </row>
     <row r="130" spans="2:6">
-      <c r="B130" s="73"/>
-      <c r="C130" s="73"/>
-      <c r="D130" s="73"/>
-      <c r="E130" s="79" t="s">
+      <c r="B130" s="70"/>
+      <c r="C130" s="70"/>
+      <c r="D130" s="70"/>
+      <c r="E130" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="F130" s="79"/>
+      <c r="F130" s="72"/>
     </row>
     <row r="131" spans="2:6">
-      <c r="B131" s="73"/>
-      <c r="C131" s="73"/>
-      <c r="D131" s="73"/>
-      <c r="E131" s="79" t="s">
+      <c r="B131" s="70"/>
+      <c r="C131" s="70"/>
+      <c r="D131" s="70"/>
+      <c r="E131" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="F131" s="79"/>
+      <c r="F131" s="72"/>
     </row>
     <row r="132" spans="2:6">
-      <c r="B132" s="73"/>
-      <c r="C132" s="73" t="s">
+      <c r="B132" s="70"/>
+      <c r="C132" s="70" t="s">
         <v>256</v>
       </c>
-      <c r="D132" s="79" t="s">
+      <c r="D132" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="E132" s="79"/>
-      <c r="F132" s="79"/>
+      <c r="E132" s="72"/>
+      <c r="F132" s="72"/>
     </row>
     <row r="133" spans="2:6">
-      <c r="B133" s="73"/>
-      <c r="C133" s="73"/>
-      <c r="D133" s="79" t="s">
+      <c r="B133" s="70"/>
+      <c r="C133" s="70"/>
+      <c r="D133" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="E133" s="79"/>
-      <c r="F133" s="79"/>
+      <c r="E133" s="72"/>
+      <c r="F133" s="72"/>
     </row>
     <row r="134" spans="2:6">
-      <c r="B134" s="73"/>
-      <c r="C134" s="73"/>
-      <c r="D134" s="79" t="s">
+      <c r="B134" s="70"/>
+      <c r="C134" s="70"/>
+      <c r="D134" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="E134" s="79"/>
-      <c r="F134" s="79"/>
+      <c r="E134" s="72"/>
+      <c r="F134" s="72"/>
     </row>
     <row r="135" spans="2:6">
-      <c r="B135" s="73"/>
-      <c r="C135" s="73"/>
-      <c r="D135" s="79" t="s">
+      <c r="B135" s="70"/>
+      <c r="C135" s="70"/>
+      <c r="D135" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="E135" s="79"/>
-      <c r="F135" s="79"/>
+      <c r="E135" s="72"/>
+      <c r="F135" s="72"/>
     </row>
     <row r="138" spans="2:6">
-      <c r="B138" s="73" t="s">
+      <c r="B138" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="C138" s="79" t="s">
+      <c r="C138" s="72" t="s">
         <v>287</v>
       </c>
-      <c r="D138" s="88" t="s">
+      <c r="D138" s="85" t="s">
         <v>288</v>
       </c>
-      <c r="E138" s="88"/>
-      <c r="F138" s="88"/>
+      <c r="E138" s="85"/>
+      <c r="F138" s="85"/>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="73"/>
-      <c r="C139" s="79" t="s">
+      <c r="B139" s="70"/>
+      <c r="C139" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="D139" s="88" t="s">
+      <c r="D139" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="E139" s="88"/>
-      <c r="F139" s="88"/>
+      <c r="E139" s="85"/>
+      <c r="F139" s="85"/>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="73"/>
-      <c r="C140" s="79" t="s">
+      <c r="B140" s="70"/>
+      <c r="C140" s="72" t="s">
         <v>291</v>
       </c>
-      <c r="D140" s="88" t="s">
+      <c r="D140" s="85" t="s">
         <v>292</v>
       </c>
-      <c r="E140" s="88"/>
-      <c r="F140" s="88"/>
+      <c r="E140" s="85"/>
+      <c r="F140" s="85"/>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="73"/>
-      <c r="C141" s="79" t="s">
+      <c r="B141" s="70"/>
+      <c r="C141" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="D141" s="73" t="s">
+      <c r="D141" s="70" t="s">
         <v>294</v>
       </c>
-      <c r="E141" s="73"/>
-      <c r="F141" s="73"/>
+      <c r="E141" s="70"/>
+      <c r="F141" s="70"/>
     </row>
     <row r="144" ht="27" spans="2:6">
-      <c r="B144" s="73" t="s">
+      <c r="B144" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C144" s="79"/>
-      <c r="D144" s="79"/>
-      <c r="E144" s="87" t="s">
+      <c r="C144" s="72"/>
+      <c r="D144" s="72"/>
+      <c r="E144" s="84" t="s">
         <v>295</v>
       </c>
-      <c r="F144" s="87"/>
+      <c r="F144" s="84"/>
     </row>
     <row r="145" spans="2:6">
-      <c r="B145" s="73"/>
-      <c r="C145" s="73" t="s">
+      <c r="B145" s="70"/>
+      <c r="C145" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="D145" s="79" t="s">
+      <c r="D145" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="E145" s="79"/>
-      <c r="F145" s="79"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
     </row>
     <row r="146" spans="2:6">
-      <c r="B146" s="73"/>
-      <c r="C146" s="73"/>
-      <c r="D146" s="79" t="s">
+      <c r="B146" s="70"/>
+      <c r="C146" s="70"/>
+      <c r="D146" s="72" t="s">
         <v>296</v>
       </c>
-      <c r="E146" s="79"/>
-      <c r="F146" s="79"/>
+      <c r="E146" s="72"/>
+      <c r="F146" s="72"/>
     </row>
     <row r="147" spans="2:6">
-      <c r="B147" s="73"/>
-      <c r="C147" s="73"/>
-      <c r="D147" s="79" t="s">
+      <c r="B147" s="70"/>
+      <c r="C147" s="70"/>
+      <c r="D147" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="E147" s="79"/>
-      <c r="F147" s="79"/>
+      <c r="E147" s="72"/>
+      <c r="F147" s="72"/>
     </row>
     <row r="148" spans="2:6">
-      <c r="B148" s="73"/>
-      <c r="C148" s="73"/>
-      <c r="D148" s="79" t="s">
+      <c r="B148" s="70"/>
+      <c r="C148" s="70"/>
+      <c r="D148" s="72" t="s">
         <v>297</v>
       </c>
-      <c r="E148" s="79"/>
-      <c r="F148" s="79"/>
+      <c r="E148" s="72"/>
+      <c r="F148" s="72"/>
     </row>
     <row r="149" spans="2:6">
-      <c r="B149" s="73"/>
-      <c r="C149" s="73"/>
-      <c r="D149" s="79" t="s">
+      <c r="B149" s="70"/>
+      <c r="C149" s="70"/>
+      <c r="D149" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="E149" s="79" t="s">
+      <c r="E149" s="72" t="s">
         <v>298</v>
       </c>
-      <c r="F149" s="79"/>
+      <c r="F149" s="72"/>
     </row>
     <row r="150" spans="2:6">
-      <c r="B150" s="73"/>
-      <c r="C150" s="72" t="s">
+      <c r="B150" s="70"/>
+      <c r="C150" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="D150" s="79" t="s">
+      <c r="D150" s="72" t="s">
         <v>300</v>
       </c>
-      <c r="E150" s="79"/>
-      <c r="F150" s="79"/>
+      <c r="E150" s="72"/>
+      <c r="F150" s="72"/>
     </row>
     <row r="151" spans="2:6">
-      <c r="B151" s="73"/>
+      <c r="B151" s="70"/>
       <c r="C151" s="75"/>
-      <c r="D151" s="79" t="s">
+      <c r="D151" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="E151" s="79"/>
-      <c r="F151" s="79"/>
+      <c r="E151" s="72"/>
+      <c r="F151" s="72"/>
     </row>
     <row r="152" spans="2:6">
-      <c r="B152" s="73"/>
+      <c r="B152" s="70"/>
       <c r="C152" s="75"/>
-      <c r="D152" s="79" t="s">
+      <c r="D152" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="E152" s="79"/>
-      <c r="F152" s="79"/>
+      <c r="E152" s="72"/>
+      <c r="F152" s="72"/>
     </row>
     <row r="153" spans="2:6">
-      <c r="B153" s="73"/>
+      <c r="B153" s="70"/>
       <c r="C153" s="75"/>
-      <c r="D153" s="79" t="s">
+      <c r="D153" s="72" t="s">
         <v>265</v>
       </c>
-      <c r="E153" s="79"/>
-      <c r="F153" s="79"/>
+      <c r="E153" s="72"/>
+      <c r="F153" s="72"/>
     </row>
     <row r="154" spans="2:6">
-      <c r="B154" s="73"/>
+      <c r="B154" s="70"/>
       <c r="C154" s="75"/>
-      <c r="D154" s="79" t="s">
+      <c r="D154" s="72" t="s">
         <v>301</v>
       </c>
-      <c r="E154" s="79"/>
-      <c r="F154" s="79"/>
+      <c r="E154" s="72"/>
+      <c r="F154" s="72"/>
     </row>
     <row r="155" spans="2:6">
-      <c r="B155" s="73"/>
-      <c r="C155" s="78"/>
-      <c r="D155" s="79" t="s">
+      <c r="B155" s="70"/>
+      <c r="C155" s="76"/>
+      <c r="D155" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="E155" s="79"/>
-      <c r="F155" s="79"/>
+      <c r="E155" s="72"/>
+      <c r="F155" s="72"/>
     </row>
     <row r="156" spans="2:6">
-      <c r="B156" s="73"/>
-      <c r="C156" s="73" t="s">
+      <c r="B156" s="70"/>
+      <c r="C156" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="D156" s="79" t="s">
+      <c r="D156" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="E156" s="79"/>
-      <c r="F156" s="79"/>
+      <c r="E156" s="72"/>
+      <c r="F156" s="72"/>
     </row>
     <row r="157" spans="2:6">
-      <c r="B157" s="73"/>
-      <c r="C157" s="73"/>
-      <c r="D157" s="79" t="s">
+      <c r="B157" s="70"/>
+      <c r="C157" s="70"/>
+      <c r="D157" s="72" t="s">
         <v>304</v>
       </c>
-      <c r="E157" s="79"/>
-      <c r="F157" s="79"/>
+      <c r="E157" s="72"/>
+      <c r="F157" s="72"/>
     </row>
     <row r="158" spans="2:6">
-      <c r="B158" s="73"/>
-      <c r="C158" s="73"/>
-      <c r="D158" s="79" t="s">
+      <c r="B158" s="70"/>
+      <c r="C158" s="70"/>
+      <c r="D158" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="E158" s="79"/>
-      <c r="F158" s="79"/>
+      <c r="E158" s="72"/>
+      <c r="F158" s="72"/>
     </row>
     <row r="159" spans="2:6">
-      <c r="B159" s="73"/>
-      <c r="C159" s="73"/>
-      <c r="D159" s="79" t="s">
+      <c r="B159" s="70"/>
+      <c r="C159" s="70"/>
+      <c r="D159" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="E159" s="79" t="s">
+      <c r="E159" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="F159" s="79"/>
+      <c r="F159" s="72"/>
     </row>
     <row r="160" spans="3:3">
       <c r="C160" s="2"/>
     </row>
     <row r="162" spans="2:6">
-      <c r="B162" s="73" t="s">
+      <c r="B162" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="C162" s="72" t="s">
+      <c r="C162" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="D162" s="73" t="s">
+      <c r="D162" s="70" t="s">
         <v>308</v>
       </c>
-      <c r="E162" s="79" t="s">
+      <c r="E162" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="F162" s="79"/>
+      <c r="F162" s="72"/>
     </row>
     <row r="163" spans="2:6">
-      <c r="B163" s="73"/>
+      <c r="B163" s="70"/>
       <c r="C163" s="75"/>
-      <c r="D163" s="73"/>
-      <c r="E163" s="79" t="s">
+      <c r="D163" s="70"/>
+      <c r="E163" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="F163" s="79"/>
+      <c r="F163" s="72"/>
     </row>
     <row r="164" spans="2:6">
-      <c r="B164" s="73"/>
+      <c r="B164" s="70"/>
       <c r="C164" s="75"/>
-      <c r="D164" s="73" t="s">
+      <c r="D164" s="70" t="s">
         <v>310</v>
       </c>
-      <c r="E164" s="79" t="s">
+      <c r="E164" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="F164" s="79"/>
+      <c r="F164" s="72"/>
     </row>
     <row r="165" spans="2:6">
-      <c r="B165" s="73"/>
+      <c r="B165" s="70"/>
       <c r="C165" s="75"/>
-      <c r="D165" s="73"/>
-      <c r="E165" s="79" t="s">
+      <c r="D165" s="70"/>
+      <c r="E165" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="F165" s="79"/>
+      <c r="F165" s="72"/>
     </row>
     <row r="166" spans="2:6">
-      <c r="B166" s="73"/>
+      <c r="B166" s="70"/>
       <c r="C166" s="75"/>
-      <c r="D166" s="72" t="s">
+      <c r="D166" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="E166" s="79" t="s">
+      <c r="E166" s="72" t="s">
         <v>311</v>
       </c>
-      <c r="F166" s="79"/>
+      <c r="F166" s="72"/>
     </row>
     <row r="167" spans="2:6">
-      <c r="B167" s="73"/>
-      <c r="C167" s="78"/>
-      <c r="D167" s="78"/>
-      <c r="E167" s="79" t="s">
+      <c r="B167" s="70"/>
+      <c r="C167" s="76"/>
+      <c r="D167" s="76"/>
+      <c r="E167" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="F167" s="79"/>
+      <c r="F167" s="72"/>
     </row>
     <row r="168" spans="2:6">
-      <c r="B168" s="73"/>
-      <c r="C168" s="79" t="s">
+      <c r="B168" s="70"/>
+      <c r="C168" s="72" t="s">
         <v>312</v>
       </c>
-      <c r="D168" s="79" t="s">
+      <c r="D168" s="72" t="s">
         <v>313</v>
       </c>
-      <c r="E168" s="79" t="s">
+      <c r="E168" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="F168" s="79"/>
+      <c r="F168" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="77">

--- a/003.python_study/006.project/001.sql_approval/009.________.需求确定/“SQL审核服务”信息汇总.v3.xlsx
+++ b/003.python_study/006.project/001.sql_approval/009.________.需求确定/“SQL审核服务”信息汇总.v3.xlsx
@@ -1424,6 +1424,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>审核规则模板</t>
     </r>
     <r>
@@ -4478,7 +4485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4715,9 +4722,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5242,445 +5246,445 @@
   </cols>
   <sheetData>
     <row r="4" ht="20.25" spans="2:18">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="101" t="s">
+      <c r="H4" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="101" t="s">
+      <c r="J4" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="101" t="s">
+      <c r="L4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="101" t="s">
+      <c r="M4" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="101" t="s">
+      <c r="O4" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="101" t="s">
+      <c r="Q4" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="100" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="2:18">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="103" t="s">
+      <c r="E5" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="103" t="s">
+      <c r="G5" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="104" t="s">
+      <c r="H5" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="102" t="s">
+      <c r="I5" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="119" t="s">
+      <c r="K5" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="108" t="s">
+      <c r="L5" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="102" t="s">
+      <c r="M5" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="102" t="s">
+      <c r="N5" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="120" t="s">
+      <c r="O5" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="102" t="s">
+      <c r="P5" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="102" t="s">
+      <c r="Q5" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="120" t="s">
+      <c r="R5" s="119" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" ht="27" spans="2:18">
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="120" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="108"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="120"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="119"/>
     </row>
     <row r="7" ht="40.5" spans="2:18">
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="107" t="s">
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="108" t="s">
+      <c r="G7" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="107" t="s">
+      <c r="H7" s="104"/>
+      <c r="I7" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="107" t="s">
+      <c r="J7" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="102"/>
-      <c r="L7" s="107" t="s">
+      <c r="K7" s="101"/>
+      <c r="L7" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="107" t="s">
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
     </row>
     <row r="9" ht="29" customHeight="1" spans="2:18">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="102" t="s">
+      <c r="F9" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="104" t="s">
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="102"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="105"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="102" t="s">
+      <c r="B10" s="104"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="105"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="102" t="s">
+      <c r="B11" s="104"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
     </row>
     <row r="12" ht="135" customHeight="1" spans="2:18">
-      <c r="B12" s="106"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="102" t="s">
+      <c r="B12" s="105"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="102"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="101"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="112" t="s">
+      <c r="C13" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="114"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="114"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="116"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="92" t="s">
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="92"/>
-      <c r="H17" s="91">
+      <c r="G17" s="91"/>
+      <c r="H17" s="90">
         <v>171</v>
       </c>
-      <c r="I17" s="121"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="91"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="92" t="s">
+      <c r="B18" s="90"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="92"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="91"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="92" t="s">
+      <c r="B19" s="90"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="92"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="91"/>
     </row>
     <row r="20" ht="78" customHeight="1" spans="2:18">
-      <c r="B20" s="91"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="92" t="s">
+      <c r="B20" s="90"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="92"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="92"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -6177,8 +6181,8 @@
   </cols>
   <sheetData>
     <row r="2" ht="26" customHeight="1" spans="2:3">
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="70" t="s">
@@ -6190,7 +6194,7 @@
     </row>
     <row r="4" ht="40.5" spans="2:3">
       <c r="B4" s="70"/>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="99" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6208,7 +6212,7 @@
     </row>
     <row r="7" ht="27" spans="2:3">
       <c r="B7" s="70"/>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="99" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6228,7 +6232,7 @@
       <c r="B10" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="99" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6270,115 +6274,115 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:3">
-      <c r="C5" s="86"/>
+      <c r="C5" s="85"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="90"/>
-      <c r="C7" s="87" t="s">
+      <c r="B7" s="89"/>
+      <c r="C7" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="91" t="s">
+      <c r="F7" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="91"/>
+      <c r="G7" s="90"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="92" t="s">
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="91"/>
+      <c r="G8" s="90"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91" t="s">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="91"/>
+      <c r="G9" s="90"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="92" t="s">
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="92" t="s">
+      <c r="G10" s="91" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="93" t="s">
+      <c r="F11" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="93"/>
+      <c r="G11" s="92"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91" t="s">
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="91"/>
+      <c r="G12" s="90"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91" t="s">
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="91"/>
+      <c r="G13" s="90"/>
     </row>
     <row r="14" ht="99" customHeight="1" spans="2:7">
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="14" t="s">
         <v>76</v>
       </c>
@@ -6391,8 +6395,8 @@
       <c r="G14" s="38"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
         <v>65</v>
@@ -6405,8 +6409,8 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="12" t="s">
@@ -6417,8 +6421,8 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="12" t="s">
@@ -6429,8 +6433,8 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="12" t="s">
@@ -6441,8 +6445,8 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="90"/>
-      <c r="C19" s="94"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="12" t="s">
@@ -6453,8 +6457,8 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="90"/>
-      <c r="C20" s="88" t="s">
+      <c r="B20" s="89"/>
+      <c r="C20" s="87" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -6465,8 +6469,8 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="90"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="14" t="s">
         <v>89</v>
       </c>
@@ -6477,8 +6481,8 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="90"/>
-      <c r="C22" s="88"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="14" t="s">
         <v>91</v>
       </c>
@@ -6491,8 +6495,8 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" ht="19" customHeight="1" spans="2:7">
-      <c r="B23" s="90"/>
-      <c r="C23" s="88"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="14"/>
       <c r="E23" s="12" t="s">
         <v>94</v>
@@ -6503,32 +6507,32 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="90"/>
-      <c r="C24" s="87" t="s">
+      <c r="B24" s="89"/>
+      <c r="C24" s="86" t="s">
         <v>96</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="95" t="s">
+      <c r="E24" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="96"/>
-      <c r="G24" s="97"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="96"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="95" t="s">
+      <c r="E25" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="96"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="39" t="s">
         <v>100</v>
       </c>
@@ -6539,8 +6543,8 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="40"/>
       <c r="E27" s="14" t="s">
         <v>102</v>
@@ -6551,8 +6555,8 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
       <c r="D28" s="41"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14" t="s">
@@ -6561,8 +6565,8 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
       <c r="D29" s="14" t="s">
         <v>46</v>
       </c>
@@ -6575,8 +6579,8 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
         <v>107</v>
@@ -6587,8 +6591,8 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
         <v>102</v>
@@ -6599,32 +6603,32 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
       <c r="D32" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="95" t="s">
+      <c r="E32" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="96"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
       <c r="D33" s="41"/>
-      <c r="E33" s="95" t="s">
+      <c r="E33" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="F33" s="96"/>
-      <c r="G33" s="97"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="96"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="88" t="s">
+      <c r="C34" s="87" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="14" t="s">
@@ -6635,8 +6639,8 @@
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="88"/>
-      <c r="C35" s="88" t="s">
+      <c r="B35" s="87"/>
+      <c r="C35" s="87" t="s">
         <v>115</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -6649,8 +6653,8 @@
       <c r="G35" s="14"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="88"/>
-      <c r="C36" s="88" t="s">
+      <c r="B36" s="87"/>
+      <c r="C36" s="87" t="s">
         <v>118</v>
       </c>
       <c r="D36" s="12" t="s">
@@ -6663,20 +6667,20 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="88"/>
-      <c r="C37" s="88" t="s">
+      <c r="B37" s="87"/>
+      <c r="C37" s="87" t="s">
         <v>121</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="88"/>
-      <c r="C38" s="88" t="s">
+      <c r="B38" s="87"/>
+      <c r="C38" s="87" t="s">
         <v>123</v>
       </c>
       <c r="D38" s="25" t="s">
@@ -6691,8 +6695,8 @@
       <c r="G38" s="25"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
       <c r="D39" s="25" t="s">
         <v>127</v>
       </c>
@@ -6705,8 +6709,8 @@
       <c r="G39" s="25"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
       <c r="D40" s="25" t="s">
         <v>130</v>
       </c>
@@ -6719,8 +6723,8 @@
       <c r="G40" s="25"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
       <c r="D41" s="25" t="s">
         <v>31</v>
       </c>
@@ -6788,8 +6792,8 @@
   <sheetPr/>
   <dimension ref="B3:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77:E77"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6968,7 +6972,7 @@
       <c r="D18" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="E18" s="125" t="s">
+      <c r="E18" s="124" t="s">
         <v>169</v>
       </c>
       <c r="F18" s="60" t="s">
@@ -7498,7 +7502,7 @@
       <c r="D74" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="E74" s="125" t="s">
+      <c r="E74" s="124" t="s">
         <v>229</v>
       </c>
       <c r="F74" s="58"/>
@@ -7520,7 +7524,7 @@
       <c r="D76" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="E76" s="125" t="s">
+      <c r="E76" s="124" t="s">
         <v>233</v>
       </c>
       <c r="F76" s="58"/>
@@ -7531,7 +7535,7 @@
       <c r="D77" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="E77" s="79" t="s">
+      <c r="E77" s="57" t="s">
         <v>235</v>
       </c>
       <c r="F77" s="58"/>
@@ -7599,22 +7603,22 @@
       <c r="B85" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="C85" s="80" t="s">
+      <c r="C85" s="79" t="s">
         <v>110</v>
       </c>
       <c r="D85" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="E85" s="81"/>
+      <c r="E85" s="80"/>
       <c r="F85" s="74"/>
     </row>
     <row r="86" spans="2:6">
       <c r="B86" s="70"/>
-      <c r="C86" s="82"/>
+      <c r="C86" s="81"/>
       <c r="D86" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="E86" s="81"/>
+      <c r="E86" s="80"/>
       <c r="F86" s="74"/>
     </row>
     <row r="89" spans="2:6">
@@ -7712,29 +7716,29 @@
     </row>
     <row r="98" ht="27" spans="2:6">
       <c r="B98" s="70"/>
-      <c r="C98" s="83"/>
+      <c r="C98" s="82"/>
       <c r="D98" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="E98" s="84" t="s">
+      <c r="E98" s="83" t="s">
         <v>258</v>
       </c>
       <c r="F98" s="72"/>
     </row>
     <row r="99" spans="2:6">
       <c r="B99" s="70"/>
-      <c r="C99" s="83"/>
+      <c r="C99" s="82"/>
       <c r="D99" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="E99" s="84" t="s">
+      <c r="E99" s="83" t="s">
         <v>260</v>
       </c>
       <c r="F99" s="72"/>
     </row>
     <row r="100" spans="2:6">
       <c r="B100" s="70"/>
-      <c r="C100" s="83"/>
+      <c r="C100" s="82"/>
       <c r="D100" s="72" t="s">
         <v>261</v>
       </c>
@@ -7743,7 +7747,7 @@
     </row>
     <row r="101" spans="2:6">
       <c r="B101" s="70"/>
-      <c r="C101" s="83"/>
+      <c r="C101" s="82"/>
       <c r="D101" s="72" t="s">
         <v>262</v>
       </c>
@@ -7752,7 +7756,7 @@
     </row>
     <row r="102" spans="2:6">
       <c r="B102" s="70"/>
-      <c r="C102" s="83"/>
+      <c r="C102" s="82"/>
       <c r="D102" s="72" t="s">
         <v>263</v>
       </c>
@@ -7761,7 +7765,7 @@
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="70"/>
-      <c r="C103" s="83"/>
+      <c r="C103" s="82"/>
       <c r="D103" s="72" t="s">
         <v>264</v>
       </c>
@@ -7770,7 +7774,7 @@
     </row>
     <row r="104" spans="2:6">
       <c r="B104" s="70"/>
-      <c r="C104" s="83"/>
+      <c r="C104" s="82"/>
       <c r="D104" s="72" t="s">
         <v>265</v>
       </c>
@@ -7779,7 +7783,7 @@
     </row>
     <row r="105" spans="2:6">
       <c r="B105" s="70"/>
-      <c r="C105" s="83"/>
+      <c r="C105" s="82"/>
       <c r="D105" s="72" t="s">
         <v>266</v>
       </c>
@@ -7788,7 +7792,7 @@
     </row>
     <row r="106" spans="2:6">
       <c r="B106" s="70"/>
-      <c r="C106" s="83"/>
+      <c r="C106" s="82"/>
       <c r="D106" s="72" t="s">
         <v>267</v>
       </c>
@@ -7797,7 +7801,7 @@
     </row>
     <row r="107" spans="2:6">
       <c r="B107" s="70"/>
-      <c r="C107" s="83"/>
+      <c r="C107" s="82"/>
       <c r="D107" s="72" t="s">
         <v>175</v>
       </c>
@@ -7808,7 +7812,7 @@
     </row>
     <row r="108" spans="2:6">
       <c r="B108" s="70"/>
-      <c r="C108" s="83"/>
+      <c r="C108" s="82"/>
       <c r="D108" s="70" t="s">
         <v>269</v>
       </c>
@@ -7819,7 +7823,7 @@
     </row>
     <row r="109" spans="2:6">
       <c r="B109" s="70"/>
-      <c r="C109" s="83"/>
+      <c r="C109" s="82"/>
       <c r="D109" s="70"/>
       <c r="E109" s="72" t="s">
         <v>271</v>
@@ -7828,7 +7832,7 @@
     </row>
     <row r="110" spans="2:6">
       <c r="B110" s="70"/>
-      <c r="C110" s="83"/>
+      <c r="C110" s="82"/>
       <c r="D110" s="70"/>
       <c r="E110" s="72" t="s">
         <v>272</v>
@@ -7837,7 +7841,7 @@
     </row>
     <row r="111" spans="2:6">
       <c r="B111" s="70"/>
-      <c r="C111" s="83"/>
+      <c r="C111" s="82"/>
       <c r="D111" s="70"/>
       <c r="E111" s="72" t="s">
         <v>273</v>
@@ -7846,7 +7850,7 @@
     </row>
     <row r="112" spans="2:6">
       <c r="B112" s="70"/>
-      <c r="C112" s="82"/>
+      <c r="C112" s="81"/>
       <c r="D112" s="70"/>
       <c r="E112" s="72" t="s">
         <v>274</v>
@@ -8079,33 +8083,33 @@
       <c r="C138" s="72" t="s">
         <v>287</v>
       </c>
-      <c r="D138" s="85" t="s">
+      <c r="D138" s="84" t="s">
         <v>288</v>
       </c>
-      <c r="E138" s="85"/>
-      <c r="F138" s="85"/>
+      <c r="E138" s="84"/>
+      <c r="F138" s="84"/>
     </row>
     <row r="139" spans="2:6">
       <c r="B139" s="70"/>
       <c r="C139" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="D139" s="85" t="s">
+      <c r="D139" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="E139" s="85"/>
-      <c r="F139" s="85"/>
+      <c r="E139" s="84"/>
+      <c r="F139" s="84"/>
     </row>
     <row r="140" spans="2:6">
       <c r="B140" s="70"/>
       <c r="C140" s="72" t="s">
         <v>291</v>
       </c>
-      <c r="D140" s="85" t="s">
+      <c r="D140" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="E140" s="85"/>
-      <c r="F140" s="85"/>
+      <c r="E140" s="84"/>
+      <c r="F140" s="84"/>
     </row>
     <row r="141" spans="2:6">
       <c r="B141" s="70"/>
@@ -8124,10 +8128,10 @@
       </c>
       <c r="C144" s="72"/>
       <c r="D144" s="72"/>
-      <c r="E144" s="84" t="s">
+      <c r="E144" s="83" t="s">
         <v>295</v>
       </c>
-      <c r="F144" s="84"/>
+      <c r="F144" s="83"/>
     </row>
     <row r="145" spans="2:6">
       <c r="B145" s="70"/>

--- a/003.python_study/006.project/001.sql_approval/009.________.需求确定/“SQL审核服务”信息汇总.v3.xlsx
+++ b/003.python_study/006.project/001.sql_approval/009.________.需求确定/“SQL审核服务”信息汇总.v3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="762" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="762" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1.调研" sheetId="1" r:id="rId1"/>
@@ -3916,7 +3916,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3956,6 +3956,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4361,7 +4367,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4385,16 +4391,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4403,89 +4409,89 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4648,62 +4654,83 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4711,34 +4738,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4786,34 +4801,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4840,10 +4855,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4858,7 +4873,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5246,445 +5261,445 @@
   </cols>
   <sheetData>
     <row r="4" ht="20.25" spans="2:18">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="100" t="s">
+      <c r="G4" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="H4" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="100" t="s">
+      <c r="I4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="100" t="s">
+      <c r="J4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="100" t="s">
+      <c r="L4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="100" t="s">
+      <c r="M4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="100" t="s">
+      <c r="N4" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="100" t="s">
+      <c r="O4" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="100" t="s">
+      <c r="Q4" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="100" t="s">
+      <c r="R4" s="103" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="2:18">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="102" t="s">
+      <c r="E5" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="102" t="s">
+      <c r="G5" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="103" t="s">
+      <c r="H5" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="101" t="s">
+      <c r="I5" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="101" t="s">
+      <c r="J5" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="118" t="s">
+      <c r="K5" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="107" t="s">
+      <c r="L5" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="101" t="s">
+      <c r="M5" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="101" t="s">
+      <c r="N5" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="101" t="s">
+      <c r="P5" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="101" t="s">
+      <c r="Q5" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="119" t="s">
+      <c r="R5" s="122" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" ht="27" spans="2:18">
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="119" t="s">
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="107"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="119"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="122"/>
     </row>
     <row r="7" ht="40.5" spans="2:18">
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="106" t="s">
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="107" t="s">
+      <c r="G7" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="106" t="s">
+      <c r="H7" s="107"/>
+      <c r="I7" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="106" t="s">
+      <c r="J7" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="101"/>
-      <c r="L7" s="106" t="s">
+      <c r="K7" s="104"/>
+      <c r="L7" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="106"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="106"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="106"/>
-      <c r="R7" s="106"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="106" t="s">
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
     </row>
     <row r="9" ht="29" customHeight="1" spans="2:18">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="103" t="s">
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="104"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="101" t="s">
+      <c r="B10" s="107"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="104"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="101" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
     </row>
     <row r="12" ht="135" customHeight="1" spans="2:18">
-      <c r="B12" s="105"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="101" t="s">
+      <c r="B12" s="108"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="113"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="113"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="115"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="91" t="s">
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="90">
+      <c r="G17" s="94"/>
+      <c r="H17" s="93">
         <v>171</v>
       </c>
-      <c r="I17" s="120"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="90"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="91" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="91"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="90"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="91" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="91"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
     </row>
     <row r="20" ht="78" customHeight="1" spans="2:18">
-      <c r="B20" s="90"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="91" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="91"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -6181,11 +6196,11 @@
   </cols>
   <sheetData>
     <row r="2" ht="26" customHeight="1" spans="2:3">
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -6193,51 +6208,51 @@
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:3">
-      <c r="B4" s="70"/>
-      <c r="C4" s="99" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="102" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="70"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="70"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" ht="27" spans="2:3">
-      <c r="B7" s="70"/>
-      <c r="C7" s="99" t="s">
+      <c r="B7" s="73"/>
+      <c r="C7" s="102" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="70"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" ht="13" customHeight="1" spans="2:3">
-      <c r="B9" s="70"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="25" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="102" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="75" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -6274,115 +6289,115 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:3">
-      <c r="C5" s="85"/>
+      <c r="C5" s="88"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="89"/>
-      <c r="C7" s="86" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="90"/>
+      <c r="G7" s="93"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="91" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="92" t="s">
+      <c r="F8" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="90"/>
+      <c r="G8" s="93"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90" t="s">
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="92" t="s">
+      <c r="F9" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="90"/>
+      <c r="G9" s="93"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="91" t="s">
+      <c r="G10" s="94" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90" t="s">
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="92" t="s">
+      <c r="F11" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="92"/>
+      <c r="G11" s="95"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="90" t="s">
+      <c r="F12" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="90"/>
+      <c r="G12" s="93"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90" t="s">
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="90" t="s">
+      <c r="F13" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="90"/>
+      <c r="G13" s="93"/>
     </row>
     <row r="14" ht="99" customHeight="1" spans="2:7">
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="14" t="s">
         <v>76</v>
       </c>
@@ -6395,8 +6410,8 @@
       <c r="G14" s="38"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
         <v>65</v>
@@ -6409,8 +6424,8 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="12" t="s">
@@ -6421,8 +6436,8 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="12" t="s">
@@ -6433,8 +6448,8 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="12" t="s">
@@ -6445,8 +6460,8 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="89"/>
-      <c r="C19" s="93"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="12" t="s">
@@ -6457,8 +6472,8 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="89"/>
-      <c r="C20" s="87" t="s">
+      <c r="B20" s="92"/>
+      <c r="C20" s="90" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -6469,8 +6484,8 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="89"/>
-      <c r="C21" s="87"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="14" t="s">
         <v>89</v>
       </c>
@@ -6481,8 +6496,8 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="89"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="14" t="s">
         <v>91</v>
       </c>
@@ -6495,8 +6510,8 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" ht="19" customHeight="1" spans="2:7">
-      <c r="B23" s="89"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="14"/>
       <c r="E23" s="12" t="s">
         <v>94</v>
@@ -6507,32 +6522,32 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="89"/>
-      <c r="C24" s="86" t="s">
+      <c r="B24" s="92"/>
+      <c r="C24" s="89" t="s">
         <v>96</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="94" t="s">
+      <c r="E24" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="95"/>
-      <c r="G24" s="96"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="99"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="94" t="s">
+      <c r="E25" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="95"/>
-      <c r="G25" s="96"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="99"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="39" t="s">
         <v>100</v>
       </c>
@@ -6543,8 +6558,8 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="40"/>
       <c r="E27" s="14" t="s">
         <v>102</v>
@@ -6555,8 +6570,8 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="41"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14" t="s">
@@ -6565,8 +6580,8 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="14" t="s">
         <v>46</v>
       </c>
@@ -6579,8 +6594,8 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
         <v>107</v>
@@ -6591,8 +6606,8 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
         <v>102</v>
@@ -6603,32 +6618,32 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="94" t="s">
+      <c r="E32" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="F32" s="95"/>
-      <c r="G32" s="96"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="99"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
       <c r="D33" s="41"/>
-      <c r="E33" s="94" t="s">
+      <c r="E33" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="F33" s="95"/>
-      <c r="G33" s="96"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="99"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="87" t="s">
+      <c r="C34" s="90" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="14" t="s">
@@ -6639,8 +6654,8 @@
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="87"/>
-      <c r="C35" s="87" t="s">
+      <c r="B35" s="90"/>
+      <c r="C35" s="90" t="s">
         <v>115</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -6653,8 +6668,8 @@
       <c r="G35" s="14"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="87"/>
-      <c r="C36" s="87" t="s">
+      <c r="B36" s="90"/>
+      <c r="C36" s="90" t="s">
         <v>118</v>
       </c>
       <c r="D36" s="12" t="s">
@@ -6667,20 +6682,20 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="87"/>
-      <c r="C37" s="87" t="s">
+      <c r="B37" s="90"/>
+      <c r="C37" s="90" t="s">
         <v>121</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="87"/>
-      <c r="C38" s="87" t="s">
+      <c r="B38" s="90"/>
+      <c r="C38" s="90" t="s">
         <v>123</v>
       </c>
       <c r="D38" s="25" t="s">
@@ -6695,8 +6710,8 @@
       <c r="G38" s="25"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="25" t="s">
         <v>127</v>
       </c>
@@ -6709,8 +6724,8 @@
       <c r="G39" s="25"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
       <c r="D40" s="25" t="s">
         <v>130</v>
       </c>
@@ -6723,8 +6738,8 @@
       <c r="G40" s="25"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
       <c r="D41" s="25" t="s">
         <v>31</v>
       </c>
@@ -6792,7 +6807,7 @@
   <sheetPr/>
   <dimension ref="B3:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A56" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -6806,1557 +6821,1557 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="59"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="56"/>
+      <c r="F5" s="59"/>
     </row>
     <row r="6" ht="76" customHeight="1" spans="2:6">
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="56"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" ht="85" customHeight="1" spans="2:6">
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="56"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" ht="119" customHeight="1" spans="2:6">
-      <c r="B8" s="55"/>
-      <c r="C8" s="60" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="55"/>
-      <c r="C9" s="60" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="56"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="59"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="61"/>
     </row>
     <row r="13" ht="54" spans="2:6">
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="58" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="58"/>
+      <c r="F13" s="61"/>
     </row>
     <row r="14" ht="54" spans="2:6">
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="63" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="15" ht="27" spans="2:6">
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="58" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="63" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="16" ht="121.5" spans="2:6">
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="63" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="58" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="61" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="18" ht="40.5" spans="2:6">
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57" t="s">
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="E18" s="124" t="s">
+      <c r="E18" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="63" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="60" t="s">
+      <c r="E19" s="61"/>
+      <c r="F19" s="63" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="20" ht="148.5" spans="2:6">
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="60" t="s">
+      <c r="E20" s="61"/>
+      <c r="F20" s="63" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="58" t="s">
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="F21" s="58"/>
+      <c r="F21" s="61"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="56"/>
-      <c r="C22" s="58" t="s">
+      <c r="B22" s="59"/>
+      <c r="C22" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="56"/>
-      <c r="C23" s="58" t="s">
+      <c r="B23" s="59"/>
+      <c r="C23" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="56"/>
-      <c r="C24" s="58" t="s">
+      <c r="B24" s="59"/>
+      <c r="C24" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="56"/>
-      <c r="C25" s="58" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="56"/>
-      <c r="C26" s="58" t="s">
+      <c r="B26" s="59"/>
+      <c r="C26" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="56" t="s">
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="67"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="70"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="56" t="s">
+      <c r="B31" s="67"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="67"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="70"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="64"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="56" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="F32" s="56"/>
+      <c r="F32" s="59"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="64"/>
-      <c r="C33" s="56" t="s">
+      <c r="B33" s="67"/>
+      <c r="C33" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="F33" s="58"/>
+      <c r="F33" s="61"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="64"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="58" t="s">
+      <c r="B34" s="67"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="E34" s="58" t="s">
+      <c r="E34" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="F34" s="58"/>
+      <c r="F34" s="61"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="64"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="58" t="s">
+      <c r="B35" s="67"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="64"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="58" t="s">
+      <c r="B36" s="67"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="E36" s="58" t="s">
+      <c r="E36" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="F36" s="58" t="s">
+      <c r="F36" s="61" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="64"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="58" t="s">
+      <c r="B37" s="67"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="64"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="58" t="s">
+      <c r="B38" s="67"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="E38" s="58" t="s">
+      <c r="E38" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="F38" s="58"/>
+      <c r="F38" s="61"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="64"/>
-      <c r="C39" s="58" t="s">
+      <c r="B39" s="67"/>
+      <c r="C39" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="D39" s="56" t="s">
+      <c r="D39" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="67"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="70"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="64"/>
-      <c r="C40" s="58" t="s">
+      <c r="B40" s="67"/>
+      <c r="C40" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="D40" s="56" t="s">
+      <c r="D40" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="67"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="70"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="64"/>
-      <c r="C41" s="63" t="s">
+      <c r="B41" s="67"/>
+      <c r="C41" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="D41" s="56" t="s">
+      <c r="D41" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="F41" s="56"/>
+      <c r="F41" s="59"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="56" t="s">
+      <c r="B42" s="67"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="E42" s="56" t="s">
+      <c r="E42" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="F42" s="56"/>
+      <c r="F42" s="59"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="64"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="58" t="s">
+      <c r="B43" s="67"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="E43" s="58" t="s">
+      <c r="E43" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="F43" s="58"/>
+      <c r="F43" s="61"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="69"/>
-      <c r="C44" s="58" t="s">
+      <c r="B44" s="72"/>
+      <c r="C44" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="D44" s="58" t="s">
+      <c r="D44" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="67"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="70"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="71" t="s">
+      <c r="C47" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="D47" s="72" t="s">
+      <c r="D47" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="E47" s="73"/>
-      <c r="F47" s="74"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="77"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="70"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="72" t="s">
+      <c r="B48" s="73"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="E48" s="73"/>
-      <c r="F48" s="74"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="77"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="70"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="70" t="s">
+      <c r="B49" s="73"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="E49" s="73" t="s">
+      <c r="E49" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="F49" s="74"/>
+      <c r="F49" s="77"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="70"/>
-      <c r="C50" s="70" t="s">
+      <c r="B50" s="73"/>
+      <c r="C50" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="70" t="s">
+      <c r="D50" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="70"/>
-      <c r="C51" s="70" t="s">
+      <c r="B51" s="73"/>
+      <c r="C51" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="70"/>
-      <c r="C52" s="70" t="s">
+      <c r="B52" s="73"/>
+      <c r="C52" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="70"/>
-      <c r="C53" s="72" t="s">
+      <c r="B53" s="73"/>
+      <c r="C53" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="70" t="s">
+      <c r="D53" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D56" s="58" t="s">
+      <c r="D56" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="E56" s="77"/>
-      <c r="F56" s="78"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="81"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="56"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="58" t="s">
+      <c r="B57" s="59"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="E57" s="77"/>
-      <c r="F57" s="78"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="81"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="56"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="56" t="s">
+      <c r="B58" s="59"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="E58" s="77" t="s">
+      <c r="E58" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="F58" s="78"/>
+      <c r="F58" s="81"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="56"/>
-      <c r="C59" s="56" t="s">
+      <c r="B59" s="59"/>
+      <c r="C59" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="D59" s="56" t="s">
+      <c r="D59" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="56"/>
-      <c r="C60" s="56" t="s">
+      <c r="B60" s="59"/>
+      <c r="C60" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="56"/>
-      <c r="C61" s="56" t="s">
+      <c r="B61" s="59"/>
+      <c r="C61" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="56"/>
-      <c r="C62" s="58" t="s">
+      <c r="B62" s="59"/>
+      <c r="C62" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="56" t="s">
+      <c r="D62" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="56" t="s">
+      <c r="B65" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="D65" s="58" t="s">
+      <c r="D65" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="E65" s="58" t="s">
+      <c r="E65" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="F65" s="58"/>
+      <c r="F65" s="61"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="56"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="58" t="s">
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="E66" s="58" t="s">
+      <c r="E66" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="F66" s="58"/>
+      <c r="F66" s="61"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="58" t="s">
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="E67" s="58" t="s">
+      <c r="E67" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="F67" s="58"/>
+      <c r="F67" s="61"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="58" t="s">
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="E68" s="58" t="s">
+      <c r="E68" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="F68" s="58"/>
+      <c r="F68" s="61"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="58" t="s">
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="E69" s="58" t="s">
+      <c r="E69" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="F69" s="58"/>
+      <c r="F69" s="61"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="56"/>
-      <c r="C70" s="56" t="s">
+      <c r="B70" s="59"/>
+      <c r="C70" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="D70" s="58" t="s">
+      <c r="D70" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="E70" s="58" t="s">
+      <c r="E70" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="F70" s="58"/>
+      <c r="F70" s="61"/>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="56"/>
-      <c r="C71" s="56" t="s">
+      <c r="B71" s="59"/>
+      <c r="C71" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D71" s="58" t="s">
+      <c r="D71" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="E71" s="58" t="s">
+      <c r="E71" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="F71" s="58"/>
+      <c r="F71" s="61"/>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="58" t="s">
+      <c r="B72" s="59"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="58" t="s">
+      <c r="B73" s="59"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="E73" s="58" t="s">
+      <c r="E73" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="F73" s="58" t="s">
+      <c r="F73" s="61" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="58" t="s">
+      <c r="B74" s="59"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="E74" s="124" t="s">
+      <c r="E74" s="127" t="s">
         <v>229</v>
       </c>
-      <c r="F74" s="58"/>
+      <c r="F74" s="61"/>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="56"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="58" t="s">
+      <c r="B75" s="59"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="E75" s="58" t="s">
+      <c r="E75" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="F75" s="58"/>
+      <c r="F75" s="61"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="58" t="s">
+      <c r="B76" s="59"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="E76" s="124" t="s">
+      <c r="E76" s="127" t="s">
         <v>233</v>
       </c>
-      <c r="F76" s="58"/>
+      <c r="F76" s="61"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="56"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="57" t="s">
+      <c r="B77" s="59"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="E77" s="57" t="s">
+      <c r="E77" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="F77" s="58"/>
+      <c r="F77" s="61"/>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="56"/>
-      <c r="C78" s="56" t="s">
+      <c r="B78" s="59"/>
+      <c r="C78" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="58" t="s">
+      <c r="D78" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="E78" s="56" t="s">
+      <c r="E78" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="F78" s="56"/>
+      <c r="F78" s="59"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="56"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="58" t="s">
+      <c r="B79" s="59"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="E79" s="56" t="s">
+      <c r="E79" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="F79" s="56"/>
+      <c r="F79" s="59"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="56"/>
-      <c r="C80" s="56" t="s">
+      <c r="B80" s="59"/>
+      <c r="C80" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="D80" s="58" t="s">
+      <c r="D80" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="E80" s="56" t="s">
+      <c r="E80" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="F80" s="56"/>
+      <c r="F80" s="59"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="56"/>
-      <c r="C81" s="58" t="s">
+      <c r="B81" s="59"/>
+      <c r="C81" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="D81" s="56" t="s">
+      <c r="D81" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="56"/>
-      <c r="C82" s="58" t="s">
+      <c r="B82" s="59"/>
+      <c r="C82" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="D82" s="58" t="s">
+      <c r="D82" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="70" t="s">
+      <c r="B85" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="C85" s="79" t="s">
+      <c r="C85" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="D85" s="73" t="s">
+      <c r="D85" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="E85" s="80"/>
-      <c r="F85" s="74"/>
+      <c r="E85" s="83"/>
+      <c r="F85" s="77"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="70"/>
-      <c r="C86" s="81"/>
-      <c r="D86" s="73" t="s">
+      <c r="B86" s="73"/>
+      <c r="C86" s="84"/>
+      <c r="D86" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="E86" s="80"/>
-      <c r="F86" s="74"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="77"/>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="70" t="s">
+      <c r="B89" s="73" t="s">
         <v>244</v>
       </c>
-      <c r="C89" s="70" t="s">
+      <c r="C89" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="D89" s="72" t="s">
+      <c r="D89" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="E89" s="72" t="s">
+      <c r="E89" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="F89" s="72"/>
+      <c r="F89" s="75"/>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="70"/>
-      <c r="C90" s="70"/>
-      <c r="D90" s="72" t="s">
+      <c r="B90" s="73"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="75" t="s">
         <v>248</v>
       </c>
-      <c r="E90" s="72" t="s">
+      <c r="E90" s="75" t="s">
         <v>249</v>
       </c>
-      <c r="F90" s="72"/>
+      <c r="F90" s="75"/>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="70"/>
-      <c r="C91" s="70"/>
-      <c r="D91" s="72" t="s">
+      <c r="B91" s="73"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
+      <c r="E91" s="75"/>
+      <c r="F91" s="75"/>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="70"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="72" t="s">
+      <c r="B92" s="73"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="E92" s="72" t="s">
+      <c r="E92" s="75" t="s">
         <v>252</v>
       </c>
-      <c r="F92" s="72"/>
+      <c r="F92" s="75"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="70"/>
-      <c r="C93" s="70"/>
-      <c r="D93" s="72" t="s">
+      <c r="B93" s="73"/>
+      <c r="C93" s="73"/>
+      <c r="D93" s="75" t="s">
         <v>253</v>
       </c>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
+      <c r="E93" s="75"/>
+      <c r="F93" s="75"/>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="70"/>
-      <c r="C94" s="70"/>
-      <c r="D94" s="72" t="s">
+      <c r="B94" s="73"/>
+      <c r="C94" s="73"/>
+      <c r="D94" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="E94" s="72"/>
-      <c r="F94" s="72"/>
+      <c r="E94" s="75"/>
+      <c r="F94" s="75"/>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="70"/>
-      <c r="C95" s="70"/>
-      <c r="D95" s="72" t="s">
+      <c r="B95" s="73"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
+      <c r="E95" s="75"/>
+      <c r="F95" s="75"/>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="70"/>
-      <c r="C96" s="70"/>
-      <c r="D96" s="72" t="s">
+      <c r="B96" s="73"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="E96" s="72"/>
-      <c r="F96" s="72"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="75"/>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="70"/>
-      <c r="C97" s="70"/>
-      <c r="D97" s="72" t="s">
+      <c r="B97" s="73"/>
+      <c r="C97" s="73"/>
+      <c r="D97" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="E97" s="72" t="s">
+      <c r="E97" s="75" t="s">
         <v>256</v>
       </c>
-      <c r="F97" s="72"/>
+      <c r="F97" s="75"/>
     </row>
     <row r="98" ht="27" spans="2:6">
-      <c r="B98" s="70"/>
-      <c r="C98" s="82"/>
-      <c r="D98" s="72" t="s">
+      <c r="B98" s="73"/>
+      <c r="C98" s="85"/>
+      <c r="D98" s="75" t="s">
         <v>257</v>
       </c>
-      <c r="E98" s="83" t="s">
+      <c r="E98" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="F98" s="72"/>
+      <c r="F98" s="75"/>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="70"/>
-      <c r="C99" s="82"/>
-      <c r="D99" s="72" t="s">
+      <c r="B99" s="73"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="E99" s="83" t="s">
+      <c r="E99" s="86" t="s">
         <v>260</v>
       </c>
-      <c r="F99" s="72"/>
+      <c r="F99" s="75"/>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="70"/>
-      <c r="C100" s="82"/>
-      <c r="D100" s="72" t="s">
+      <c r="B100" s="73"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="E100" s="72"/>
-      <c r="F100" s="72"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="75"/>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="70"/>
-      <c r="C101" s="82"/>
-      <c r="D101" s="72" t="s">
+      <c r="B101" s="73"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
+      <c r="E101" s="75"/>
+      <c r="F101" s="75"/>
     </row>
     <row r="102" spans="2:6">
-      <c r="B102" s="70"/>
-      <c r="C102" s="82"/>
-      <c r="D102" s="72" t="s">
+      <c r="B102" s="73"/>
+      <c r="C102" s="85"/>
+      <c r="D102" s="75" t="s">
         <v>263</v>
       </c>
-      <c r="E102" s="72"/>
-      <c r="F102" s="72"/>
+      <c r="E102" s="75"/>
+      <c r="F102" s="75"/>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="70"/>
-      <c r="C103" s="82"/>
-      <c r="D103" s="72" t="s">
+      <c r="B103" s="73"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="E103" s="72"/>
-      <c r="F103" s="72"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="75"/>
     </row>
     <row r="104" spans="2:6">
-      <c r="B104" s="70"/>
-      <c r="C104" s="82"/>
-      <c r="D104" s="72" t="s">
+      <c r="B104" s="73"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="75" t="s">
         <v>265</v>
       </c>
-      <c r="E104" s="72"/>
-      <c r="F104" s="72"/>
+      <c r="E104" s="75"/>
+      <c r="F104" s="75"/>
     </row>
     <row r="105" spans="2:6">
-      <c r="B105" s="70"/>
-      <c r="C105" s="82"/>
-      <c r="D105" s="72" t="s">
+      <c r="B105" s="73"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="75" t="s">
         <v>266</v>
       </c>
-      <c r="E105" s="72"/>
-      <c r="F105" s="72"/>
+      <c r="E105" s="75"/>
+      <c r="F105" s="75"/>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="70"/>
-      <c r="C106" s="82"/>
-      <c r="D106" s="72" t="s">
+      <c r="B106" s="73"/>
+      <c r="C106" s="85"/>
+      <c r="D106" s="75" t="s">
         <v>267</v>
       </c>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
+      <c r="E106" s="75"/>
+      <c r="F106" s="75"/>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="70"/>
-      <c r="C107" s="82"/>
-      <c r="D107" s="72" t="s">
+      <c r="B107" s="73"/>
+      <c r="C107" s="85"/>
+      <c r="D107" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="E107" s="72" t="s">
+      <c r="E107" s="75" t="s">
         <v>268</v>
       </c>
-      <c r="F107" s="72"/>
+      <c r="F107" s="75"/>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="70"/>
-      <c r="C108" s="82"/>
-      <c r="D108" s="70" t="s">
+      <c r="B108" s="73"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="73" t="s">
         <v>269</v>
       </c>
-      <c r="E108" s="72" t="s">
+      <c r="E108" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="F108" s="72"/>
+      <c r="F108" s="75"/>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="70"/>
-      <c r="C109" s="82"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="72" t="s">
+      <c r="B109" s="73"/>
+      <c r="C109" s="85"/>
+      <c r="D109" s="73"/>
+      <c r="E109" s="75" t="s">
         <v>271</v>
       </c>
-      <c r="F109" s="72"/>
+      <c r="F109" s="75"/>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="70"/>
-      <c r="C110" s="82"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="72" t="s">
+      <c r="B110" s="73"/>
+      <c r="C110" s="85"/>
+      <c r="D110" s="73"/>
+      <c r="E110" s="75" t="s">
         <v>272</v>
       </c>
-      <c r="F110" s="72"/>
+      <c r="F110" s="75"/>
     </row>
     <row r="111" spans="2:6">
-      <c r="B111" s="70"/>
-      <c r="C111" s="82"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="72" t="s">
+      <c r="B111" s="73"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="73"/>
+      <c r="E111" s="75" t="s">
         <v>273</v>
       </c>
-      <c r="F111" s="72"/>
+      <c r="F111" s="75"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="70"/>
-      <c r="C112" s="81"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="72" t="s">
+      <c r="B112" s="73"/>
+      <c r="C112" s="84"/>
+      <c r="D112" s="73"/>
+      <c r="E112" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="F112" s="72"/>
+      <c r="F112" s="75"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="70"/>
-      <c r="C113" s="70" t="s">
+      <c r="B113" s="73"/>
+      <c r="C113" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="D113" s="72" t="s">
+      <c r="D113" s="75" t="s">
         <v>275</v>
       </c>
-      <c r="E113" s="72" t="s">
+      <c r="E113" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="F113" s="72"/>
+      <c r="F113" s="75"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="70"/>
-      <c r="C114" s="70"/>
-      <c r="D114" s="70" t="s">
+      <c r="B114" s="73"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="E114" s="72" t="s">
+      <c r="E114" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="F114" s="72"/>
+      <c r="F114" s="75"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="70"/>
-      <c r="C115" s="70"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="72" t="s">
+      <c r="B115" s="73"/>
+      <c r="C115" s="73"/>
+      <c r="D115" s="73"/>
+      <c r="E115" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="F115" s="72"/>
+      <c r="F115" s="75"/>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="70"/>
-      <c r="C116" s="70"/>
-      <c r="D116" s="70"/>
-      <c r="E116" s="72" t="s">
+      <c r="B116" s="73"/>
+      <c r="C116" s="73"/>
+      <c r="D116" s="73"/>
+      <c r="E116" s="75" t="s">
         <v>253</v>
       </c>
-      <c r="F116" s="72"/>
+      <c r="F116" s="75"/>
     </row>
     <row r="117" spans="2:6">
-      <c r="B117" s="70"/>
-      <c r="C117" s="70"/>
-      <c r="D117" s="70"/>
-      <c r="E117" s="72" t="s">
+      <c r="B117" s="73"/>
+      <c r="C117" s="73"/>
+      <c r="D117" s="73"/>
+      <c r="E117" s="75" t="s">
         <v>266</v>
       </c>
-      <c r="F117" s="72"/>
+      <c r="F117" s="75"/>
     </row>
     <row r="118" spans="2:6">
-      <c r="B118" s="70"/>
-      <c r="C118" s="70"/>
-      <c r="D118" s="70"/>
-      <c r="E118" s="72" t="s">
+      <c r="B118" s="73"/>
+      <c r="C118" s="73"/>
+      <c r="D118" s="73"/>
+      <c r="E118" s="75" t="s">
         <v>278</v>
       </c>
-      <c r="F118" s="72"/>
+      <c r="F118" s="75"/>
     </row>
     <row r="119" spans="2:6">
-      <c r="B119" s="70"/>
-      <c r="C119" s="70"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="72" t="s">
+      <c r="B119" s="73"/>
+      <c r="C119" s="73"/>
+      <c r="D119" s="73"/>
+      <c r="E119" s="75" t="s">
         <v>279</v>
       </c>
-      <c r="F119" s="72"/>
+      <c r="F119" s="75"/>
     </row>
     <row r="120" spans="2:6">
-      <c r="B120" s="70"/>
-      <c r="C120" s="70"/>
-      <c r="D120" s="70"/>
-      <c r="E120" s="72" t="s">
+      <c r="B120" s="73"/>
+      <c r="C120" s="73"/>
+      <c r="D120" s="73"/>
+      <c r="E120" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="F120" s="72"/>
+      <c r="F120" s="75"/>
     </row>
     <row r="121" spans="2:6">
-      <c r="B121" s="70"/>
-      <c r="C121" s="70"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="72" t="s">
+      <c r="B121" s="73"/>
+      <c r="C121" s="73"/>
+      <c r="D121" s="73"/>
+      <c r="E121" s="75" t="s">
         <v>248</v>
       </c>
-      <c r="F121" s="72"/>
+      <c r="F121" s="75"/>
     </row>
     <row r="122" spans="2:6">
-      <c r="B122" s="70"/>
-      <c r="C122" s="70"/>
-      <c r="D122" s="70" t="s">
+      <c r="B122" s="73"/>
+      <c r="C122" s="73"/>
+      <c r="D122" s="73" t="s">
         <v>269</v>
       </c>
-      <c r="E122" s="72" t="s">
+      <c r="E122" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="F122" s="72"/>
+      <c r="F122" s="75"/>
     </row>
     <row r="123" spans="2:6">
-      <c r="B123" s="70"/>
-      <c r="C123" s="70"/>
-      <c r="D123" s="70"/>
-      <c r="E123" s="72" t="s">
+      <c r="B123" s="73"/>
+      <c r="C123" s="73"/>
+      <c r="D123" s="73"/>
+      <c r="E123" s="75" t="s">
         <v>271</v>
       </c>
-      <c r="F123" s="72"/>
+      <c r="F123" s="75"/>
     </row>
     <row r="124" spans="2:6">
-      <c r="B124" s="70"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="70"/>
-      <c r="E124" s="72" t="s">
+      <c r="B124" s="73"/>
+      <c r="C124" s="73"/>
+      <c r="D124" s="73"/>
+      <c r="E124" s="75" t="s">
         <v>272</v>
       </c>
-      <c r="F124" s="72"/>
+      <c r="F124" s="75"/>
     </row>
     <row r="125" spans="2:6">
-      <c r="B125" s="70"/>
-      <c r="C125" s="70"/>
-      <c r="D125" s="70"/>
-      <c r="E125" s="72" t="s">
+      <c r="B125" s="73"/>
+      <c r="C125" s="73"/>
+      <c r="D125" s="73"/>
+      <c r="E125" s="75" t="s">
         <v>273</v>
       </c>
-      <c r="F125" s="72"/>
+      <c r="F125" s="75"/>
     </row>
     <row r="126" spans="2:6">
-      <c r="B126" s="70"/>
-      <c r="C126" s="70"/>
-      <c r="D126" s="70"/>
-      <c r="E126" s="72" t="s">
+      <c r="B126" s="73"/>
+      <c r="C126" s="73"/>
+      <c r="D126" s="73"/>
+      <c r="E126" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="F126" s="72"/>
+      <c r="F126" s="75"/>
     </row>
     <row r="127" spans="2:6">
-      <c r="B127" s="70"/>
-      <c r="C127" s="70"/>
-      <c r="D127" s="70"/>
-      <c r="E127" s="72" t="s">
+      <c r="B127" s="73"/>
+      <c r="C127" s="73"/>
+      <c r="D127" s="73"/>
+      <c r="E127" s="75" t="s">
         <v>272</v>
       </c>
-      <c r="F127" s="72"/>
+      <c r="F127" s="75"/>
     </row>
     <row r="128" spans="2:6">
-      <c r="B128" s="70"/>
-      <c r="C128" s="70"/>
-      <c r="D128" s="70" t="s">
+      <c r="B128" s="73"/>
+      <c r="C128" s="73"/>
+      <c r="D128" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="E128" s="72" t="s">
+      <c r="E128" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="F128" s="72"/>
+      <c r="F128" s="75"/>
     </row>
     <row r="129" spans="2:6">
-      <c r="B129" s="70"/>
-      <c r="C129" s="70"/>
-      <c r="D129" s="70"/>
-      <c r="E129" s="72" t="s">
+      <c r="B129" s="73"/>
+      <c r="C129" s="73"/>
+      <c r="D129" s="73"/>
+      <c r="E129" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="F129" s="72"/>
+      <c r="F129" s="75"/>
     </row>
     <row r="130" spans="2:6">
-      <c r="B130" s="70"/>
-      <c r="C130" s="70"/>
-      <c r="D130" s="70"/>
-      <c r="E130" s="72" t="s">
+      <c r="B130" s="73"/>
+      <c r="C130" s="73"/>
+      <c r="D130" s="73"/>
+      <c r="E130" s="75" t="s">
         <v>282</v>
       </c>
-      <c r="F130" s="72"/>
+      <c r="F130" s="75"/>
     </row>
     <row r="131" spans="2:6">
-      <c r="B131" s="70"/>
-      <c r="C131" s="70"/>
-      <c r="D131" s="70"/>
-      <c r="E131" s="72" t="s">
+      <c r="B131" s="73"/>
+      <c r="C131" s="73"/>
+      <c r="D131" s="73"/>
+      <c r="E131" s="75" t="s">
         <v>283</v>
       </c>
-      <c r="F131" s="72"/>
+      <c r="F131" s="75"/>
     </row>
     <row r="132" spans="2:6">
-      <c r="B132" s="70"/>
-      <c r="C132" s="70" t="s">
+      <c r="B132" s="73"/>
+      <c r="C132" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="D132" s="72" t="s">
+      <c r="D132" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="E132" s="72"/>
-      <c r="F132" s="72"/>
+      <c r="E132" s="75"/>
+      <c r="F132" s="75"/>
     </row>
     <row r="133" spans="2:6">
-      <c r="B133" s="70"/>
-      <c r="C133" s="70"/>
-      <c r="D133" s="72" t="s">
+      <c r="B133" s="73"/>
+      <c r="C133" s="73"/>
+      <c r="D133" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="E133" s="72"/>
-      <c r="F133" s="72"/>
+      <c r="E133" s="75"/>
+      <c r="F133" s="75"/>
     </row>
     <row r="134" spans="2:6">
-      <c r="B134" s="70"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="72" t="s">
+      <c r="B134" s="73"/>
+      <c r="C134" s="73"/>
+      <c r="D134" s="75" t="s">
         <v>285</v>
       </c>
-      <c r="E134" s="72"/>
-      <c r="F134" s="72"/>
+      <c r="E134" s="75"/>
+      <c r="F134" s="75"/>
     </row>
     <row r="135" spans="2:6">
-      <c r="B135" s="70"/>
-      <c r="C135" s="70"/>
-      <c r="D135" s="72" t="s">
+      <c r="B135" s="73"/>
+      <c r="C135" s="73"/>
+      <c r="D135" s="75" t="s">
         <v>286</v>
       </c>
-      <c r="E135" s="72"/>
-      <c r="F135" s="72"/>
+      <c r="E135" s="75"/>
+      <c r="F135" s="75"/>
     </row>
     <row r="138" spans="2:6">
-      <c r="B138" s="70" t="s">
+      <c r="B138" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C138" s="72" t="s">
+      <c r="C138" s="75" t="s">
         <v>287</v>
       </c>
-      <c r="D138" s="84" t="s">
+      <c r="D138" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="E138" s="84"/>
-      <c r="F138" s="84"/>
+      <c r="E138" s="87"/>
+      <c r="F138" s="87"/>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="70"/>
-      <c r="C139" s="72" t="s">
+      <c r="B139" s="73"/>
+      <c r="C139" s="75" t="s">
         <v>289</v>
       </c>
-      <c r="D139" s="84" t="s">
+      <c r="D139" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="E139" s="84"/>
-      <c r="F139" s="84"/>
+      <c r="E139" s="87"/>
+      <c r="F139" s="87"/>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="70"/>
-      <c r="C140" s="72" t="s">
+      <c r="B140" s="73"/>
+      <c r="C140" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="D140" s="84" t="s">
+      <c r="D140" s="87" t="s">
         <v>292</v>
       </c>
-      <c r="E140" s="84"/>
-      <c r="F140" s="84"/>
+      <c r="E140" s="87"/>
+      <c r="F140" s="87"/>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="70"/>
-      <c r="C141" s="72" t="s">
+      <c r="B141" s="73"/>
+      <c r="C141" s="75" t="s">
         <v>293</v>
       </c>
-      <c r="D141" s="70" t="s">
+      <c r="D141" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="E141" s="70"/>
-      <c r="F141" s="70"/>
+      <c r="E141" s="73"/>
+      <c r="F141" s="73"/>
     </row>
     <row r="144" ht="27" spans="2:6">
-      <c r="B144" s="70" t="s">
+      <c r="B144" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C144" s="72"/>
-      <c r="D144" s="72"/>
-      <c r="E144" s="83" t="s">
+      <c r="C144" s="75"/>
+      <c r="D144" s="75"/>
+      <c r="E144" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="F144" s="83"/>
+      <c r="F144" s="86"/>
     </row>
     <row r="145" spans="2:6">
-      <c r="B145" s="70"/>
-      <c r="C145" s="70" t="s">
+      <c r="B145" s="73"/>
+      <c r="C145" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="D145" s="72" t="s">
+      <c r="D145" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="E145" s="72"/>
-      <c r="F145" s="72"/>
+      <c r="E145" s="75"/>
+      <c r="F145" s="75"/>
     </row>
     <row r="146" spans="2:6">
-      <c r="B146" s="70"/>
-      <c r="C146" s="70"/>
-      <c r="D146" s="72" t="s">
+      <c r="B146" s="73"/>
+      <c r="C146" s="73"/>
+      <c r="D146" s="75" t="s">
         <v>296</v>
       </c>
-      <c r="E146" s="72"/>
-      <c r="F146" s="72"/>
+      <c r="E146" s="75"/>
+      <c r="F146" s="75"/>
     </row>
     <row r="147" spans="2:6">
-      <c r="B147" s="70"/>
-      <c r="C147" s="70"/>
-      <c r="D147" s="72" t="s">
+      <c r="B147" s="73"/>
+      <c r="C147" s="73"/>
+      <c r="D147" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E147" s="72"/>
-      <c r="F147" s="72"/>
+      <c r="E147" s="75"/>
+      <c r="F147" s="75"/>
     </row>
     <row r="148" spans="2:6">
-      <c r="B148" s="70"/>
-      <c r="C148" s="70"/>
-      <c r="D148" s="72" t="s">
+      <c r="B148" s="73"/>
+      <c r="C148" s="73"/>
+      <c r="D148" s="75" t="s">
         <v>297</v>
       </c>
-      <c r="E148" s="72"/>
-      <c r="F148" s="72"/>
+      <c r="E148" s="75"/>
+      <c r="F148" s="75"/>
     </row>
     <row r="149" spans="2:6">
-      <c r="B149" s="70"/>
-      <c r="C149" s="70"/>
-      <c r="D149" s="72" t="s">
+      <c r="B149" s="73"/>
+      <c r="C149" s="73"/>
+      <c r="D149" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="E149" s="72" t="s">
+      <c r="E149" s="75" t="s">
         <v>298</v>
       </c>
-      <c r="F149" s="72"/>
+      <c r="F149" s="75"/>
     </row>
     <row r="150" spans="2:6">
-      <c r="B150" s="70"/>
-      <c r="C150" s="71" t="s">
+      <c r="B150" s="73"/>
+      <c r="C150" s="74" t="s">
         <v>299</v>
       </c>
-      <c r="D150" s="72" t="s">
+      <c r="D150" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="E150" s="72"/>
-      <c r="F150" s="72"/>
+      <c r="E150" s="75"/>
+      <c r="F150" s="75"/>
     </row>
     <row r="151" spans="2:6">
-      <c r="B151" s="70"/>
-      <c r="C151" s="75"/>
-      <c r="D151" s="72" t="s">
+      <c r="B151" s="73"/>
+      <c r="C151" s="78"/>
+      <c r="D151" s="75" t="s">
         <v>263</v>
       </c>
-      <c r="E151" s="72"/>
-      <c r="F151" s="72"/>
+      <c r="E151" s="75"/>
+      <c r="F151" s="75"/>
     </row>
     <row r="152" spans="2:6">
-      <c r="B152" s="70"/>
-      <c r="C152" s="75"/>
-      <c r="D152" s="72" t="s">
+      <c r="B152" s="73"/>
+      <c r="C152" s="78"/>
+      <c r="D152" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="E152" s="72"/>
-      <c r="F152" s="72"/>
+      <c r="E152" s="75"/>
+      <c r="F152" s="75"/>
     </row>
     <row r="153" spans="2:6">
-      <c r="B153" s="70"/>
-      <c r="C153" s="75"/>
-      <c r="D153" s="72" t="s">
+      <c r="B153" s="73"/>
+      <c r="C153" s="78"/>
+      <c r="D153" s="75" t="s">
         <v>265</v>
       </c>
-      <c r="E153" s="72"/>
-      <c r="F153" s="72"/>
+      <c r="E153" s="75"/>
+      <c r="F153" s="75"/>
     </row>
     <row r="154" spans="2:6">
-      <c r="B154" s="70"/>
-      <c r="C154" s="75"/>
-      <c r="D154" s="72" t="s">
+      <c r="B154" s="73"/>
+      <c r="C154" s="78"/>
+      <c r="D154" s="75" t="s">
         <v>301</v>
       </c>
-      <c r="E154" s="72"/>
-      <c r="F154" s="72"/>
+      <c r="E154" s="75"/>
+      <c r="F154" s="75"/>
     </row>
     <row r="155" spans="2:6">
-      <c r="B155" s="70"/>
-      <c r="C155" s="76"/>
-      <c r="D155" s="72" t="s">
+      <c r="B155" s="73"/>
+      <c r="C155" s="79"/>
+      <c r="D155" s="75" t="s">
         <v>302</v>
       </c>
-      <c r="E155" s="72"/>
-      <c r="F155" s="72"/>
+      <c r="E155" s="75"/>
+      <c r="F155" s="75"/>
     </row>
     <row r="156" spans="2:6">
-      <c r="B156" s="70"/>
-      <c r="C156" s="70" t="s">
+      <c r="B156" s="73"/>
+      <c r="C156" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="D156" s="72" t="s">
+      <c r="D156" s="75" t="s">
         <v>303</v>
       </c>
-      <c r="E156" s="72"/>
-      <c r="F156" s="72"/>
+      <c r="E156" s="75"/>
+      <c r="F156" s="75"/>
     </row>
     <row r="157" spans="2:6">
-      <c r="B157" s="70"/>
-      <c r="C157" s="70"/>
-      <c r="D157" s="72" t="s">
+      <c r="B157" s="73"/>
+      <c r="C157" s="73"/>
+      <c r="D157" s="75" t="s">
         <v>304</v>
       </c>
-      <c r="E157" s="72"/>
-      <c r="F157" s="72"/>
+      <c r="E157" s="75"/>
+      <c r="F157" s="75"/>
     </row>
     <row r="158" spans="2:6">
-      <c r="B158" s="70"/>
-      <c r="C158" s="70"/>
-      <c r="D158" s="72" t="s">
+      <c r="B158" s="73"/>
+      <c r="C158" s="73"/>
+      <c r="D158" s="75" t="s">
         <v>248</v>
       </c>
-      <c r="E158" s="72"/>
-      <c r="F158" s="72"/>
+      <c r="E158" s="75"/>
+      <c r="F158" s="75"/>
     </row>
     <row r="159" spans="2:6">
-      <c r="B159" s="70"/>
-      <c r="C159" s="70"/>
-      <c r="D159" s="72" t="s">
+      <c r="B159" s="73"/>
+      <c r="C159" s="73"/>
+      <c r="D159" s="75" t="s">
         <v>305</v>
       </c>
-      <c r="E159" s="72" t="s">
+      <c r="E159" s="75" t="s">
         <v>306</v>
       </c>
-      <c r="F159" s="72"/>
+      <c r="F159" s="75"/>
     </row>
     <row r="160" spans="3:3">
       <c r="C160" s="2"/>
     </row>
     <row r="162" spans="2:6">
-      <c r="B162" s="70" t="s">
+      <c r="B162" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="C162" s="71" t="s">
+      <c r="C162" s="74" t="s">
         <v>307</v>
       </c>
-      <c r="D162" s="70" t="s">
+      <c r="D162" s="73" t="s">
         <v>308</v>
       </c>
-      <c r="E162" s="72" t="s">
+      <c r="E162" s="75" t="s">
         <v>309</v>
       </c>
-      <c r="F162" s="72"/>
+      <c r="F162" s="75"/>
     </row>
     <row r="163" spans="2:6">
-      <c r="B163" s="70"/>
-      <c r="C163" s="75"/>
-      <c r="D163" s="70"/>
-      <c r="E163" s="72" t="s">
+      <c r="B163" s="73"/>
+      <c r="C163" s="78"/>
+      <c r="D163" s="73"/>
+      <c r="E163" s="75" t="s">
         <v>293</v>
       </c>
-      <c r="F163" s="72"/>
+      <c r="F163" s="75"/>
     </row>
     <row r="164" spans="2:6">
-      <c r="B164" s="70"/>
-      <c r="C164" s="75"/>
-      <c r="D164" s="70" t="s">
+      <c r="B164" s="73"/>
+      <c r="C164" s="78"/>
+      <c r="D164" s="73" t="s">
         <v>310</v>
       </c>
-      <c r="E164" s="72" t="s">
+      <c r="E164" s="75" t="s">
         <v>309</v>
       </c>
-      <c r="F164" s="72"/>
+      <c r="F164" s="75"/>
     </row>
     <row r="165" spans="2:6">
-      <c r="B165" s="70"/>
-      <c r="C165" s="75"/>
-      <c r="D165" s="70"/>
-      <c r="E165" s="72" t="s">
+      <c r="B165" s="73"/>
+      <c r="C165" s="78"/>
+      <c r="D165" s="73"/>
+      <c r="E165" s="75" t="s">
         <v>293</v>
       </c>
-      <c r="F165" s="72"/>
+      <c r="F165" s="75"/>
     </row>
     <row r="166" spans="2:6">
-      <c r="B166" s="70"/>
-      <c r="C166" s="75"/>
-      <c r="D166" s="71" t="s">
+      <c r="B166" s="73"/>
+      <c r="C166" s="78"/>
+      <c r="D166" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="E166" s="72" t="s">
+      <c r="E166" s="75" t="s">
         <v>311</v>
       </c>
-      <c r="F166" s="72"/>
+      <c r="F166" s="75"/>
     </row>
     <row r="167" spans="2:6">
-      <c r="B167" s="70"/>
-      <c r="C167" s="76"/>
-      <c r="D167" s="76"/>
-      <c r="E167" s="72" t="s">
+      <c r="B167" s="73"/>
+      <c r="C167" s="79"/>
+      <c r="D167" s="79"/>
+      <c r="E167" s="75" t="s">
         <v>293</v>
       </c>
-      <c r="F167" s="72"/>
+      <c r="F167" s="75"/>
     </row>
     <row r="168" spans="2:6">
-      <c r="B168" s="70"/>
-      <c r="C168" s="72" t="s">
+      <c r="B168" s="73"/>
+      <c r="C168" s="75" t="s">
         <v>312</v>
       </c>
-      <c r="D168" s="72" t="s">
+      <c r="D168" s="75" t="s">
         <v>313</v>
       </c>
-      <c r="E168" s="72" t="s">
+      <c r="E168" s="75" t="s">
         <v>314</v>
       </c>
-      <c r="F168" s="72"/>
+      <c r="F168" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="77">
@@ -8448,8 +8463,8 @@
   <sheetPr/>
   <dimension ref="B1:K102"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8500,25 +8515,25 @@
       <c r="C3" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="54" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="J3" s="44"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" ht="54" spans="2:11">
       <c r="B4" s="14"/>
@@ -8538,7 +8553,7 @@
         <v>244</v>
       </c>
       <c r="J4" s="12"/>
-      <c r="K4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" ht="27" spans="2:10">
       <c r="B5" s="14"/>
@@ -10244,8 +10259,8 @@
   <sheetPr/>
   <dimension ref="B1:J62"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="B48" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11390,8 +11405,8 @@
   <sheetPr/>
   <dimension ref="B1:G84"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
